--- a/tests/test1/d40/ЛМ, 0.1.xlsx
+++ b/tests/test1/d40/ЛМ, 0.1.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002631499999999676</v>
+        <v>0.003998899999999139</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003336600000004353</v>
+        <v>0.002511400000001274</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002118299999999351</v>
+        <v>0.003664099999999948</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004439899999994168</v>
+        <v>0.002524300000001034</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.0021259000000029</v>
+        <v>0.002128700000000094</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003496800000000633</v>
+        <v>0.00234849999999831</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002287299999998993</v>
+        <v>0.002091500000000579</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.00273560000000117</v>
+        <v>0.001924999999999955</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002565999999994517</v>
+        <v>0.002218600000000848</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001965900000001852</v>
+        <v>0.003583499999999518</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002273299999998812</v>
+        <v>0.002022699999999489</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002331599999997991</v>
+        <v>0.002028300000000982</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.00249290000000002</v>
+        <v>0.002087600000001189</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002131300000002057</v>
+        <v>0.002092499999999831</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003101799999996047</v>
+        <v>0.003006199999999737</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002150700000001393</v>
+        <v>0.002047700000000319</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.003043000000005236</v>
+        <v>0.003699900000000866</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002736200000001077</v>
+        <v>0.002294700000000205</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.003444099999995842</v>
+        <v>0.002499000000000251</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001850799999999708</v>
+        <v>0.001897800000000061</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002874299999994889</v>
+        <v>0.002705100000000016</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001885999999998944</v>
+        <v>0.002034099999999484</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002080500000005259</v>
+        <v>0.001959799999999845</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003427799999997205</v>
+        <v>0.004294500000000312</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002093600000002027</v>
+        <v>0.001987899999999598</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003294699999997874</v>
+        <v>0.001955300000000548</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002447999999994011</v>
+        <v>0.002497900000001607</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002607900000000996</v>
+        <v>0.002442799999998968</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004722800000003247</v>
+        <v>0.004618699999999976</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.003107300000003477</v>
+        <v>0.00400920000000049</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002372600000001057</v>
+        <v>0.002416799999998887</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002553599999998823</v>
+        <v>0.002475099999999841</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002763199999996857</v>
+        <v>0.002108599999999683</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002116800000003138</v>
+        <v>0.002152799999999289</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001899399999999218</v>
+        <v>0.001780000000000115</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00235049999999859</v>
+        <v>0.002207200000000853</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002529200000005005</v>
+        <v>0.00250579999999978</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002228899999998646</v>
+        <v>0.001968499999998485</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002550200000001723</v>
+        <v>0.004100700000000401</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.00463460000000282</v>
+        <v>0.002491599999999039</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002105000000000246</v>
+        <v>0.003262599999999338</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002642299999997988</v>
+        <v>0.002036000000000371</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002934299999999723</v>
+        <v>0.002493700000000487</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001872300000002269</v>
+        <v>0.001952199999999849</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002256299999999101</v>
+        <v>0.002023099999998834</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002126500000002807</v>
+        <v>0.002473800000000637</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002676700000002086</v>
+        <v>0.00222459999999991</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002120100000006175</v>
+        <v>0.001987800000000206</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002272000000004937</v>
+        <v>0.001770399999999839</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.00195820000000424</v>
+        <v>0.001765999999999934</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002408199999997862</v>
+        <v>0.002075400000000727</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002128700000000094</v>
+        <v>0.002005900000000338</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002144999999998731</v>
+        <v>0.003551700000000935</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002548599999997236</v>
+        <v>0.002028700000000327</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002475699999997971</v>
+        <v>0.002292600000000533</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002373499999997364</v>
+        <v>0.001818200000000658</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.003555699999999717</v>
+        <v>0.001750400000000596</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001984799999995346</v>
+        <v>0.003392899999999699</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.004881199999999808</v>
+        <v>0.002243999999999247</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002141600000001631</v>
+        <v>0.002002199999999732</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.00197629999999549</v>
+        <v>0.00201610000000052</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002091000000000065</v>
+        <v>0.001980499999998386</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002707799999996041</v>
+        <v>0.002736900000000375</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002655799999999431</v>
+        <v>0.002220000000001221</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002346399999993309</v>
+        <v>0.002331800000000328</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002064499999995917</v>
+        <v>0.001999099999999032</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002785200000005261</v>
+        <v>0.001970199999998812</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.00393139999999903</v>
+        <v>0.00271739999999987</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002125499999998226</v>
+        <v>0.002031499999999298</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003773899999998775</v>
+        <v>0.004293999999999798</v>
       </c>
       <c r="Y71" t="n">
         <v>10</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002130900000004488</v>
+        <v>0.002065100000001152</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001866499999998439</v>
+        <v>0.001765199999999467</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002544999999997799</v>
+        <v>0.001788499999999971</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.003355899999995415</v>
+        <v>0.002446900000000696</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002351499999996065</v>
+        <v>0.00228050000000124</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002269800000000544</v>
+        <v>0.001990699999998569</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002768400000000781</v>
+        <v>0.004043300000001082</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002059700000003772</v>
+        <v>0.001977899999999977</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002538899999997568</v>
+        <v>0.001764400000000776</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002326599999996404</v>
+        <v>0.002274800000000354</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002627099999997995</v>
+        <v>0.002500099999998895</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002305800000002023</v>
+        <v>0.002354499999999149</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002842099999995185</v>
+        <v>0.002236800000000372</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002289799999999786</v>
+        <v>0.003298600000000818</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001817099999996685</v>
+        <v>0.001767799999999653</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.00257949999999596</v>
+        <v>0.002470199999999423</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002092199999999877</v>
+        <v>0.002021399999998508</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002908200000000249</v>
+        <v>0.002675500000000497</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002541799999995931</v>
+        <v>0.002509299999999826</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002482999999998015</v>
+        <v>0.001987500000000253</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002094500000005439</v>
+        <v>0.003639800000000193</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.001816699999999116</v>
+        <v>0.001798899999998937</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002399499999995669</v>
+        <v>0.002208800000000011</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002874200000000826</v>
+        <v>0.002482099999999932</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003913699999998244</v>
+        <v>0.002433800000000375</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002101400000000808</v>
+        <v>0.002085600000000909</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002965600000003121</v>
+        <v>0.00219790000000053</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002556699999999523</v>
+        <v>0.004241699999999682</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002563700000003166</v>
+        <v>0.002226000000000283</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002335200000004534</v>
+        <v>0.002198899999999782</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d40/ЛМ, 0.1.xlsx
+++ b/tests/test1/d40/ЛМ, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003998899999999139</v>
+        <v>0.003132600000000707</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002511400000001274</v>
+        <v>0.002786999999997875</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003664099999999948</v>
+        <v>0.002914599999996881</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002524300000001034</v>
+        <v>0.002789500000005773</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002128700000000094</v>
+        <v>0.002270599999988576</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.00234849999999831</v>
+        <v>0.002545999999995274</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002091500000000579</v>
+        <v>0.002283500000004324</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001924999999999955</v>
+        <v>0.002214799999990191</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002218600000000848</v>
+        <v>0.004556300000004398</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.003583499999999518</v>
+        <v>0.002027000000012436</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002022699999999489</v>
+        <v>0.002333199999995372</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002028300000000982</v>
+        <v>0.002518299999991314</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002087600000001189</v>
+        <v>0.002210499999989679</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002092499999999831</v>
+        <v>0.002279099999995537</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003006199999999737</v>
+        <v>0.002745799999999576</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002047700000000319</v>
+        <v>0.003171500000007654</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.003699900000000866</v>
+        <v>0.002250799999998776</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002294700000000205</v>
+        <v>0.003254099999992377</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002499000000000251</v>
+        <v>0.002717700000005152</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001897800000000061</v>
+        <v>0.003984199999990778</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002705100000000016</v>
+        <v>0.002950600000005466</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002034099999999484</v>
+        <v>0.002438400000002616</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001959799999999845</v>
+        <v>0.002290600000009135</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004294500000000312</v>
+        <v>0.002936700000006454</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.001987899999999598</v>
+        <v>0.003277300000007699</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.001955300000000548</v>
+        <v>0.004396299999996245</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002497900000001607</v>
+        <v>0.004736199999996415</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002442799999998968</v>
+        <v>0.003992400000001339</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004618699999999976</v>
+        <v>0.003220600000005902</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.00400920000000049</v>
+        <v>0.002187500000005116</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002416799999998887</v>
+        <v>0.006130699999999933</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002475099999999841</v>
+        <v>0.002722699999992528</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002108599999999683</v>
+        <v>0.005421599999991145</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002152799999999289</v>
+        <v>0.002167700000001105</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001780000000000115</v>
+        <v>0.004479599999996253</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002207200000000853</v>
+        <v>0.002494499999997402</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00250579999999978</v>
+        <v>0.005297800000008124</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.001968499999998485</v>
+        <v>0.002305000000006885</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004100700000000401</v>
+        <v>0.004560499999996637</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002491599999999039</v>
+        <v>0.00277160000000265</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.003262599999999338</v>
+        <v>0.00335500000001332</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002036000000000371</v>
+        <v>0.002186199999997029</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002493700000000487</v>
+        <v>0.002670999999992318</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001952199999999849</v>
+        <v>0.001991200000006188</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002023099999998834</v>
+        <v>0.002159800000001155</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002473800000000637</v>
+        <v>0.002185199999999554</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00222459999999991</v>
+        <v>0.002462399999998865</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001987800000000206</v>
+        <v>0.004521100000005163</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001770399999999839</v>
+        <v>0.002003800000011324</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001765999999999934</v>
+        <v>0.00499369999999999</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002075400000000727</v>
+        <v>0.002291200000001936</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002005900000000338</v>
+        <v>0.005024499999990439</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003551700000000935</v>
+        <v>0.002405800000005343</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002028700000000327</v>
+        <v>0.005256099999996877</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002292600000000533</v>
+        <v>0.002711099999999078</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001818200000000658</v>
+        <v>0.002737199999998552</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001750400000000596</v>
+        <v>0.002007500000004825</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003392899999999699</v>
+        <v>0.001895399999995107</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002243999999999247</v>
+        <v>0.00246110000000499</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002002199999999732</v>
+        <v>0.002252200000000926</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.00201610000000052</v>
+        <v>0.002197400000000016</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.001980499999998386</v>
+        <v>0.002352599999994709</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002736900000000375</v>
+        <v>0.002037000000001399</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002220000000001221</v>
+        <v>0.002827499999995098</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002331800000000328</v>
+        <v>0.004349799999999959</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001999099999999032</v>
+        <v>0.00219609999999193</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.001970199999998812</v>
+        <v>0.002152699999996344</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.00271739999999987</v>
+        <v>0.003051800000008598</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002031499999999298</v>
+        <v>0.002186199999997029</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.004293999999999798</v>
+        <v>0.002729599999995003</v>
       </c>
       <c r="Y71" t="n">
         <v>10</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002065100000001152</v>
+        <v>0.002161799999996106</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001765199999999467</v>
+        <v>0.002106699999998796</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001788499999999971</v>
+        <v>0.002276199999997175</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002446900000000696</v>
+        <v>0.002833500000008371</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00228050000000124</v>
+        <v>0.00240630000000408</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001990699999998569</v>
+        <v>0.00218199999999058</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004043300000001082</v>
+        <v>0.00280720000000656</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.001977899999999977</v>
+        <v>0.002336300000010283</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001764400000000776</v>
+        <v>0.001910599999987994</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002274800000000354</v>
+        <v>0.004776100000000838</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002500099999998895</v>
+        <v>0.002679700000001617</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002354499999999149</v>
+        <v>0.004335600000004547</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002236800000000372</v>
+        <v>0.002408099999996693</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003298600000000818</v>
+        <v>0.002468899999996665</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001767799999999653</v>
+        <v>0.001931599999991818</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002470199999999423</v>
+        <v>0.003167799999999943</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002021399999998508</v>
+        <v>0.002347799999995459</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002675500000000497</v>
+        <v>0.003041800000005423</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002509299999999826</v>
+        <v>0.003069299999992836</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001987500000000253</v>
+        <v>0.00244780000001299</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003639800000000193</v>
+        <v>0.002323199999992198</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.001798899999998937</v>
+        <v>0.002090300000006096</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002208800000000011</v>
+        <v>0.002589700000001471</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002482099999999932</v>
+        <v>0.003076700000008259</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002433800000000375</v>
+        <v>0.002882399999990071</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002085600000000909</v>
+        <v>0.002604599999997959</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.00219790000000053</v>
+        <v>0.002746800000011262</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.004241699999999682</v>
+        <v>0.002767900000009149</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002226000000000283</v>
+        <v>0.002976500000002602</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002198899999999782</v>
+        <v>0.006669800000011605</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d40/ЛМ, 0.1.xlsx
+++ b/tests/test1/d40/ЛМ, 0.1.xlsx
@@ -582,13 +582,13 @@
         <v>359.9769658531562</v>
       </c>
       <c r="F2" t="n">
-        <v>40.18518241735337</v>
+        <v>40.18518241735335</v>
       </c>
       <c r="G2" t="n">
         <v>98.29138429462172</v>
       </c>
       <c r="H2" t="n">
-        <v>11.69659791575167</v>
+        <v>11.69659791575166</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>22.93941356750579</v>
       </c>
       <c r="P2" t="n">
-        <v>38.5970872375365</v>
+        <v>38.59708723753648</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01024374260837045</v>
+        <v>0.01024374260836996</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2521112354654866</v>
+        <v>0.2521112354654823</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1166760080267483</v>
+        <v>0.1166760080267429</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08440009519776964</v>
+        <v>0.08440009519776553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009986656865275164</v>
+        <v>0.009986656865275058</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05669450120247028</v>
+        <v>0.05669450120246783</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003132600000000707</v>
+        <v>0.002089399999995578</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -667,7 +667,7 @@
         <v>39.69525492306478</v>
       </c>
       <c r="G3" t="n">
-        <v>75.22999550540787</v>
+        <v>75.22999550540789</v>
       </c>
       <c r="H3" t="n">
         <v>11.50076591760041</v>
@@ -697,22 +697,22 @@
         <v>43.11458948044385</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01023308403874104</v>
+        <v>0.0102330840387408</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2510605445506234</v>
+        <v>0.2510605445505985</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1139623669527516</v>
+        <v>0.1139623669527413</v>
       </c>
       <c r="T3" t="n">
-        <v>0.12084094661164</v>
+        <v>0.1208409466116371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00994039576151178</v>
+        <v>0.009940395761511784</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05579707012725174</v>
+        <v>0.055797070127252</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002786999999997875</v>
+        <v>0.002087299999999459</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -746,13 +746,13 @@
         <v>0.01248897269429584</v>
       </c>
       <c r="F4" t="n">
-        <v>40.2166604897072</v>
+        <v>40.21666048970719</v>
       </c>
       <c r="G4" t="n">
-        <v>83.72633620929759</v>
+        <v>83.72633620929763</v>
       </c>
       <c r="H4" t="n">
-        <v>3.249790414334831</v>
+        <v>3.249790414334829</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>7.573059047665977</v>
       </c>
       <c r="P4" t="n">
-        <v>38.3610512336172</v>
+        <v>38.36105123361718</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009351542768237653</v>
+        <v>0.009351542768237893</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2017349231063675</v>
+        <v>0.201734923106362</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04812773555885235</v>
+        <v>0.04812773555885317</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2536953453757445</v>
+        <v>0.2536953453757526</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01054905493894402</v>
+        <v>0.01054905493894401</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1883928694924959</v>
+        <v>0.1883928694924999</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002914599999996881</v>
+        <v>0.001653900000000874</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,10 +828,10 @@
         <v>0.02333563083529177</v>
       </c>
       <c r="F5" t="n">
-        <v>39.67157012207434</v>
+        <v>39.67157012207433</v>
       </c>
       <c r="G5" t="n">
-        <v>99.92469100303617</v>
+        <v>99.92469100303623</v>
       </c>
       <c r="H5" t="n">
         <v>11.33304689744137</v>
@@ -858,25 +858,25 @@
         <v>22.78805196934084</v>
       </c>
       <c r="P5" t="n">
-        <v>37.65007068000544</v>
+        <v>37.65007068000542</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00998957193280821</v>
+        <v>0.009989571932809005</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2431156843879869</v>
+        <v>0.2431156843880612</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1116911149245871</v>
+        <v>0.1116911149246196</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0829569896810655</v>
+        <v>0.08295698968106843</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01044145609274322</v>
+        <v>0.01044145609274314</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08101327457651213</v>
+        <v>0.08101327457651525</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002789500000005773</v>
+        <v>0.002003199999997207</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.3169440759526</v>
       </c>
       <c r="H6" t="n">
-        <v>9.772934326913521</v>
+        <v>9.772934326913532</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>5.171016820931538</v>
       </c>
       <c r="P6" t="n">
-        <v>25.87988361245587</v>
+        <v>25.87988361245585</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.007870456830428845</v>
+        <v>0.00787045683042879</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1728326248180548</v>
+        <v>0.1728326248180535</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0267175094343425</v>
+        <v>0.02671750943434212</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2590339362289737</v>
+        <v>0.25903393622897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009407881466568641</v>
+        <v>0.009407881466568633</v>
       </c>
       <c r="V6" t="n">
-        <v>0.07662607755523018</v>
+        <v>0.07662607755523387</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002270599999988576</v>
+        <v>0.001745299999996064</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,13 +992,13 @@
         <v>359.9843498447863</v>
       </c>
       <c r="F7" t="n">
-        <v>40.22913357815496</v>
+        <v>40.22913357815498</v>
       </c>
       <c r="G7" t="n">
         <v>39.78311280063119</v>
       </c>
       <c r="H7" t="n">
-        <v>13.66467331395681</v>
+        <v>13.66467331395683</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>13.06415088510546</v>
       </c>
       <c r="P7" t="n">
-        <v>51.54806288039224</v>
+        <v>51.54806288039227</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01056397859785794</v>
+        <v>0.01056397859785853</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2626622819427999</v>
+        <v>0.2626622819428233</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09932339148070989</v>
+        <v>0.09932339148072321</v>
       </c>
       <c r="T7" t="n">
-        <v>0.219961121704252</v>
+        <v>0.2199611217042747</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009591571299231381</v>
+        <v>0.009591571299231364</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06275866069845236</v>
+        <v>0.06275866069845526</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002545999999995274</v>
+        <v>0.001803099999996505</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>161.5804250264902</v>
       </c>
       <c r="H8" t="n">
-        <v>7.171067259699378</v>
+        <v>7.171067259699377</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>29.40940013485805</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008680560845119546</v>
+        <v>0.008680560845119518</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1658719551388607</v>
+        <v>0.1658719551388615</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03798415627486204</v>
+        <v>0.03798415627486178</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2115785871850156</v>
+        <v>0.2115785871850143</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009287950737844951</v>
+        <v>0.009287950737844922</v>
       </c>
       <c r="V8" t="n">
-        <v>0.108081750952517</v>
+        <v>0.1080817509525167</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002283500000004324</v>
+        <v>0.001651400000000081</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1186,25 +1186,25 @@
         <v>5.159968631541227</v>
       </c>
       <c r="P9" t="n">
-        <v>51.17716158364986</v>
+        <v>51.17716158364987</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00956729904909474</v>
+        <v>0.009567299049094851</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2654927230601504</v>
+        <v>0.2654927230601508</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04874289029470217</v>
+        <v>0.04874289029470364</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4076026281884126</v>
+        <v>0.4076026281884174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009486474129295574</v>
+        <v>0.009486474129295566</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09751931217635422</v>
+        <v>0.09751931217635232</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002214799999990191</v>
+        <v>0.001477600000001189</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1238,7 +1238,7 @@
         <v>359.9913325116158</v>
       </c>
       <c r="F10" t="n">
-        <v>40.19660083596664</v>
+        <v>40.19660083596665</v>
       </c>
       <c r="G10" t="n">
         <v>156.9705700717551</v>
@@ -1265,28 +1265,28 @@
         <v>22.65229206771021</v>
       </c>
       <c r="O10" t="n">
-        <v>20.5887482417354</v>
+        <v>20.58874824173542</v>
       </c>
       <c r="P10" t="n">
-        <v>22.86457877567531</v>
+        <v>22.86457877567532</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.009375691223161751</v>
+        <v>0.009375691223162083</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1936963764876699</v>
+        <v>0.1936963764876766</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06571480743757606</v>
+        <v>0.06571480743757931</v>
       </c>
       <c r="T10" t="n">
         <v>0.06486193976765539</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01094459119693013</v>
+        <v>0.01094459119693014</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0264169003016753</v>
+        <v>0.02641690030168334</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004556300000004398</v>
+        <v>0.00196809999999914</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1320,13 +1320,13 @@
         <v>359.9961872830403</v>
       </c>
       <c r="F11" t="n">
-        <v>40.2303304811102</v>
+        <v>40.23033048111021</v>
       </c>
       <c r="G11" t="n">
         <v>1.938646325607551</v>
       </c>
       <c r="H11" t="n">
-        <v>8.788535953107218</v>
+        <v>8.788535953107221</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>1.813364353352089</v>
       </c>
       <c r="P11" t="n">
-        <v>48.17830203312536</v>
+        <v>48.17830203312537</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007976809059997396</v>
+        <v>0.007976809059997429</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4267163969804055</v>
+        <v>0.4267163969804109</v>
       </c>
       <c r="S11" t="n">
         <v>0.02586853763645727</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6716163362172833</v>
+        <v>0.6716163362172914</v>
       </c>
       <c r="U11" t="n">
         <v>0.01047014682953516</v>
       </c>
       <c r="V11" t="n">
-        <v>0.06921888069061137</v>
+        <v>0.06921888069061015</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002027000000012436</v>
+        <v>0.001563199999999654</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>139.026021907464</v>
       </c>
       <c r="H12" t="n">
-        <v>3.275358905645551</v>
+        <v>3.275358905645549</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1435,22 +1435,22 @@
         <v>34.65336228010131</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.008810810528140235</v>
+        <v>0.008810810528140024</v>
       </c>
       <c r="R12" t="n">
-        <v>0.192922646545657</v>
+        <v>0.1929226465456574</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03822723319845853</v>
+        <v>0.03822723319845749</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2734533400760838</v>
+        <v>0.2734533400760765</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008895771495500557</v>
+        <v>0.008895771495500561</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02721806980850134</v>
+        <v>0.02721806980849998</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002333199999995372</v>
+        <v>0.001747199999996951</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1484,13 +1484,13 @@
         <v>0.005139213173702766</v>
       </c>
       <c r="F13" t="n">
-        <v>39.56474737393674</v>
+        <v>39.56474737393675</v>
       </c>
       <c r="G13" t="n">
-        <v>32.12344270563188</v>
+        <v>32.12344270563192</v>
       </c>
       <c r="H13" t="n">
-        <v>3.164847399398378</v>
+        <v>3.164847399398375</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>4.545984865833439</v>
       </c>
       <c r="P13" t="n">
-        <v>40.29152810720614</v>
+        <v>40.29152810720615</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008709170636857454</v>
+        <v>0.008709170636857323</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2362637017862181</v>
+        <v>0.2362637017862187</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03568246097075262</v>
+        <v>0.03568246097075207</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3687399489998591</v>
+        <v>0.368739948999852</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009630277651272109</v>
+        <v>0.009630277651272126</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0885715340070751</v>
+        <v>0.08857153400707685</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002518299999991314</v>
+        <v>0.001705899999997484</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1569,10 +1569,10 @@
         <v>40.35259529899428</v>
       </c>
       <c r="G14" t="n">
-        <v>27.58061777330204</v>
+        <v>27.58061777330202</v>
       </c>
       <c r="H14" t="n">
-        <v>12.13729603120788</v>
+        <v>12.1372960312079</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         <v>8.888452603121529</v>
       </c>
       <c r="P14" t="n">
-        <v>51.26144985133763</v>
+        <v>51.26144985133765</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01027805988466947</v>
+        <v>0.01027805988466953</v>
       </c>
       <c r="R14" t="n">
         <v>0.2516065973465735</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07267843098178116</v>
+        <v>0.07267843098178087</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2873471764642248</v>
+        <v>0.2873471764642264</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01006949965384205</v>
+        <v>0.01006949965384206</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08291180017254639</v>
+        <v>0.08291180017255041</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002210499999989679</v>
+        <v>0.001738699999997095</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1648,7 +1648,7 @@
         <v>359.9993460812636</v>
       </c>
       <c r="F15" t="n">
-        <v>40.07899830054313</v>
+        <v>40.07899830054311</v>
       </c>
       <c r="G15" t="n">
         <v>139.6068654327779</v>
@@ -1678,25 +1678,25 @@
         <v>10.0828375137735</v>
       </c>
       <c r="P15" t="n">
-        <v>32.62811428920936</v>
+        <v>32.62811428920935</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.009264324610090122</v>
+        <v>0.009264324610090123</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1814840347657876</v>
+        <v>0.1814840347657845</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0507554203838327</v>
+        <v>0.05075542038383232</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1775755652651375</v>
+        <v>0.1775755652651391</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008771335149557672</v>
+        <v>0.008771335149557687</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02265755145048141</v>
+        <v>0.02265755145048069</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002279099999995537</v>
+        <v>0.002135800000004906</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1730,13 +1730,13 @@
         <v>0.01821680138753724</v>
       </c>
       <c r="F16" t="n">
-        <v>39.93482447746042</v>
+        <v>39.93482447746038</v>
       </c>
       <c r="G16" t="n">
-        <v>92.36132791691415</v>
+        <v>92.36132791691421</v>
       </c>
       <c r="H16" t="n">
-        <v>12.25374048217646</v>
+        <v>12.25374048217645</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1757,28 +1757,28 @@
         <v>40.02752228674725</v>
       </c>
       <c r="O16" t="n">
-        <v>23.38446865009561</v>
+        <v>23.38446865009562</v>
       </c>
       <c r="P16" t="n">
-        <v>39.99795861516811</v>
+        <v>39.99795861516806</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01017648593174212</v>
+        <v>0.01017648593174099</v>
       </c>
       <c r="R16" t="n">
-        <v>0.255545964953053</v>
+        <v>0.2555459649529313</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1227849020905292</v>
+        <v>0.1227849020904736</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0871058151252216</v>
+        <v>0.08710581512521447</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01038768979115323</v>
+        <v>0.01038768979115322</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01105213451333568</v>
+        <v>0.01105213451333284</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002745799999999576</v>
+        <v>0.00210299999999819</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>153.0423614073355</v>
       </c>
       <c r="H17" t="n">
-        <v>5.16522749565524</v>
+        <v>5.165227495655241</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1845,22 +1845,22 @@
         <v>32.062037383506</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.008799033274227923</v>
+        <v>0.008799033274228093</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1774095904038361</v>
+        <v>0.1774095904038369</v>
       </c>
       <c r="S17" t="n">
-        <v>0.03916178305643451</v>
+        <v>0.03916178305643445</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2345382535047653</v>
+        <v>0.23453825350477</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01001605986946329</v>
+        <v>0.0100160598694633</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01979824625981768</v>
+        <v>0.01979824625981811</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.003171500000007654</v>
+        <v>0.00171890000000019</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1894,13 +1894,13 @@
         <v>0.003723296192794413</v>
       </c>
       <c r="F18" t="n">
-        <v>39.55204642715917</v>
+        <v>39.55204642715918</v>
       </c>
       <c r="G18" t="n">
-        <v>40.57082202241644</v>
+        <v>40.57082202241642</v>
       </c>
       <c r="H18" t="n">
-        <v>9.020861168392447</v>
+        <v>9.020861168392456</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1921,28 +1921,28 @@
         <v>46.64286093130009</v>
       </c>
       <c r="O18" t="n">
-        <v>10.30837246168945</v>
+        <v>10.30837246168944</v>
       </c>
       <c r="P18" t="n">
-        <v>45.89927232890727</v>
+        <v>45.89927232890729</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.009947814521435609</v>
+        <v>0.009947814521435559</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2279924116736306</v>
+        <v>0.2279924116736211</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07128582080981172</v>
+        <v>0.07128582080980848</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2299423904323551</v>
+        <v>0.2299423904323516</v>
       </c>
       <c r="U18" t="n">
-        <v>0.008531223100129921</v>
+        <v>0.008531223100129923</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1081199762938997</v>
+        <v>0.1081199762938958</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002250799999998776</v>
+        <v>0.002078799999999603</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1982,7 +1982,7 @@
         <v>52.12660109852391</v>
       </c>
       <c r="H19" t="n">
-        <v>9.540642768166114</v>
+        <v>9.540642768166112</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2009,22 +2009,22 @@
         <v>45.51495584950288</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01019920626794182</v>
+        <v>0.0101992062679421</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2380275839895725</v>
+        <v>0.2380275839895736</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0852433349947682</v>
+        <v>0.08524333499477034</v>
       </c>
       <c r="T19" t="n">
-        <v>0.190600364255938</v>
+        <v>0.1906003642559459</v>
       </c>
       <c r="U19" t="n">
         <v>0.01030358799733211</v>
       </c>
       <c r="V19" t="n">
-        <v>0.07932873111842736</v>
+        <v>0.07932873111842689</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.003254099999992377</v>
+        <v>0.001954999999995266</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>359.9664538835082</v>
       </c>
       <c r="F20" t="n">
-        <v>40.27657708547852</v>
+        <v>40.27657708547849</v>
       </c>
       <c r="G20" t="n">
         <v>115.8379317143718</v>
       </c>
       <c r="H20" t="n">
-        <v>9.14257303815941</v>
+        <v>9.142573038159403</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2088,25 +2088,25 @@
         <v>18.53153010265645</v>
       </c>
       <c r="P20" t="n">
-        <v>34.6767380953294</v>
+        <v>34.67673809532937</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.009974229102043413</v>
+        <v>0.009974229102044657</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2242241594530973</v>
+        <v>0.224224159453133</v>
       </c>
       <c r="S20" t="n">
-        <v>0.08691853035956543</v>
+        <v>0.08691853035958393</v>
       </c>
       <c r="T20" t="n">
-        <v>0.09770636908921954</v>
+        <v>0.09770636908922857</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01021095845748083</v>
+        <v>0.01021095845748085</v>
       </c>
       <c r="V20" t="n">
-        <v>0.08085607808182088</v>
+        <v>0.08085607808181754</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002717700000005152</v>
+        <v>0.002013499999996782</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>0.002082091465565545</v>
       </c>
       <c r="F21" t="n">
-        <v>39.87721647132151</v>
+        <v>39.8772164713215</v>
       </c>
       <c r="G21" t="n">
-        <v>17.36388202751865</v>
+        <v>17.36388202751866</v>
       </c>
       <c r="H21" t="n">
-        <v>12.27828656993148</v>
+        <v>12.27828656993147</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>6.192926844582876</v>
       </c>
       <c r="P21" t="n">
-        <v>51.62461846040294</v>
+        <v>51.62461846040292</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.009855329409707694</v>
+        <v>0.009855329409707824</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2564583104119314</v>
+        <v>0.2564583104119271</v>
       </c>
       <c r="S21" t="n">
-        <v>0.05590124759194057</v>
+        <v>0.05590124759193991</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3665449854415919</v>
+        <v>0.3665449854415972</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009648520166853455</v>
+        <v>0.009648520166853452</v>
       </c>
       <c r="V21" t="n">
-        <v>0.03617226170888316</v>
+        <v>0.03617226170888028</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.003984199999990778</v>
+        <v>0.002473199999997178</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2222,7 +2222,7 @@
         <v>0.01245800306875037</v>
       </c>
       <c r="F22" t="n">
-        <v>39.67475032876048</v>
+        <v>39.67475032876047</v>
       </c>
       <c r="G22" t="n">
         <v>106.2054010053138</v>
@@ -2252,25 +2252,25 @@
         <v>27.43197296939644</v>
       </c>
       <c r="P22" t="n">
-        <v>36.6156617510814</v>
+        <v>36.61566175108139</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01003012324461869</v>
+        <v>0.01003012324461875</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2548427133011399</v>
+        <v>0.2548427133011653</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1283833532858349</v>
+        <v>0.1283833532858454</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06103065687688601</v>
+        <v>0.06103065687688511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009422071742249634</v>
+        <v>0.009422071742249613</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05883637522074286</v>
+        <v>0.05883637522074383</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002950600000005466</v>
+        <v>0.002293500000000392</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2310,7 +2310,7 @@
         <v>8.801654726441551</v>
       </c>
       <c r="H23" t="n">
-        <v>6.889564927335698</v>
+        <v>6.889564927335694</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>45.95933597832202</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.008604872320470606</v>
+        <v>0.008604872320470539</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3195364905178913</v>
+        <v>0.3195364905178912</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03219693207062866</v>
+        <v>0.0321969320706288</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5154321034930806</v>
+        <v>0.515432103493078</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01012929086248005</v>
+        <v>0.01012929086248004</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2029852024175983</v>
+        <v>0.2029852024175967</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002438400000002616</v>
+        <v>0.001526299999994762</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>40.30490268059194</v>
       </c>
       <c r="G24" t="n">
-        <v>38.59320677024172</v>
+        <v>38.59320677024169</v>
       </c>
       <c r="H24" t="n">
-        <v>8.589140561806442</v>
+        <v>8.589140561806452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>9.434056499086871</v>
       </c>
       <c r="P24" t="n">
-        <v>46.37158964101919</v>
+        <v>46.3715896410192</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01006010560162931</v>
+        <v>0.01006010560162941</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2336054644163265</v>
+        <v>0.2336054644163199</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06823105481203896</v>
+        <v>0.06823105481203737</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2498285711340587</v>
+        <v>0.249828571134061</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01103194856617554</v>
+        <v>0.01103194856617552</v>
       </c>
       <c r="V24" t="n">
-        <v>0.08513657943087234</v>
+        <v>0.08513657943086884</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002290600000009135</v>
+        <v>0.002364100000001201</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,13 +2468,13 @@
         <v>359.9931252854471</v>
       </c>
       <c r="F25" t="n">
-        <v>39.90948264791894</v>
+        <v>39.90948264791897</v>
       </c>
       <c r="G25" t="n">
         <v>93.02711438912311</v>
       </c>
       <c r="H25" t="n">
-        <v>14.347435604856</v>
+        <v>14.34743560485602</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2498,25 +2498,25 @@
         <v>26.77455630728879</v>
       </c>
       <c r="P25" t="n">
-        <v>40.75323900357366</v>
+        <v>40.7532390035737</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01030461087853214</v>
+        <v>0.01030461087853106</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2687490466087549</v>
+        <v>0.2687490466087279</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1421541293301671</v>
+        <v>0.1421541293301485</v>
       </c>
       <c r="T25" t="n">
-        <v>0.07361530575721478</v>
+        <v>0.073615305757208</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009162171373584754</v>
+        <v>0.009162171373584787</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01062625684681099</v>
+        <v>0.01062625684680615</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002936700000006454</v>
+        <v>0.002228500000001077</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2550,7 +2550,7 @@
         <v>359.9843690699267</v>
       </c>
       <c r="F26" t="n">
-        <v>39.780962757341</v>
+        <v>39.78096275734102</v>
       </c>
       <c r="G26" t="n">
         <v>172.439709998187</v>
@@ -2580,25 +2580,25 @@
         <v>6.900452047895156</v>
       </c>
       <c r="P26" t="n">
-        <v>24.18439287225325</v>
+        <v>24.18439287225326</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008089862255970691</v>
+        <v>0.008089862255969945</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1479555832031705</v>
+        <v>0.1479555832031745</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03036458325204701</v>
+        <v>0.03036458325204374</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2035510148160763</v>
+        <v>0.2035510148160547</v>
       </c>
       <c r="U26" t="n">
-        <v>0.009723661339879288</v>
+        <v>0.009723661339879272</v>
       </c>
       <c r="V26" t="n">
-        <v>0.09648516294769284</v>
+        <v>0.09648516294769371</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003277300000007699</v>
+        <v>0.001672999999996705</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,13 +2632,13 @@
         <v>0.001910383566874735</v>
       </c>
       <c r="F27" t="n">
-        <v>40.25832490282725</v>
+        <v>40.25832490282724</v>
       </c>
       <c r="G27" t="n">
         <v>156.4960434942824</v>
       </c>
       <c r="H27" t="n">
-        <v>10.04585732136539</v>
+        <v>10.04585732136538</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2665,22 +2665,22 @@
         <v>27.25121410036845</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.009188754357539733</v>
+        <v>0.009188754357539866</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1723635885511079</v>
+        <v>0.1723635885511206</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0517435098157176</v>
+        <v>0.05174350981572166</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1252215133328243</v>
+        <v>0.1252215133328232</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01068353082568875</v>
+        <v>0.01068353082568879</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03476503688254234</v>
+        <v>0.03476503688254056</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004396299999996245</v>
+        <v>0.002170599999999467</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2714,13 +2714,13 @@
         <v>0.006858200646442587</v>
       </c>
       <c r="F28" t="n">
-        <v>40.02840369565888</v>
+        <v>40.02840369565889</v>
       </c>
       <c r="G28" t="n">
-        <v>56.02664260400911</v>
+        <v>56.02664260400908</v>
       </c>
       <c r="H28" t="n">
-        <v>9.139629532577038</v>
+        <v>9.139629532577048</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>13.27258515221286</v>
       </c>
       <c r="P28" t="n">
-        <v>44.73573498838159</v>
+        <v>44.73573498838163</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01016634134214894</v>
+        <v>0.01016634134214935</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2370698807457255</v>
+        <v>0.2370698807457344</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08544898068356428</v>
+        <v>0.08544898068357018</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1833860823524237</v>
+        <v>0.1833860823524325</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009601617213359418</v>
+        <v>0.009601617213359438</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0474951144241839</v>
+        <v>0.04749511442417899</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004736199999996415</v>
+        <v>0.001875600000005306</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>359.9782975496776</v>
       </c>
       <c r="F29" t="n">
-        <v>40.06577643786395</v>
+        <v>40.06577643786397</v>
       </c>
       <c r="G29" t="n">
         <v>76.25539880525814</v>
       </c>
       <c r="H29" t="n">
-        <v>12.88027698112653</v>
+        <v>12.88027698112654</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,25 +2826,25 @@
         <v>21.46467795332462</v>
       </c>
       <c r="P29" t="n">
-        <v>44.18636770290363</v>
+        <v>44.18636770290365</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01044686545556259</v>
+        <v>0.01044686545556337</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2645267302468565</v>
+        <v>0.2645267302468819</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1276128176155884</v>
+        <v>0.1276128176156047</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1135385312581766</v>
+        <v>0.1135385312581876</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01035106851739524</v>
+        <v>0.0103510685173952</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04039334949152781</v>
+        <v>0.04039334949153001</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003992400000001339</v>
+        <v>0.002079500000000678</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9982575887018</v>
       </c>
       <c r="F30" t="n">
-        <v>39.97827185978862</v>
+        <v>39.97827185978866</v>
       </c>
       <c r="G30" t="n">
         <v>131.0584060644707</v>
       </c>
       <c r="H30" t="n">
-        <v>9.719403351579775</v>
+        <v>9.719403351579784</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>31.31086349853181</v>
       </c>
       <c r="O30" t="n">
-        <v>18.54503239773164</v>
+        <v>18.54503239773165</v>
       </c>
       <c r="P30" t="n">
-        <v>31.32786939564638</v>
+        <v>31.32786939564641</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.00968224585586802</v>
+        <v>0.009682245855867461</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2101600582808988</v>
+        <v>0.2101600582808836</v>
       </c>
       <c r="S30" t="n">
-        <v>0.07831883701873164</v>
+        <v>0.07831883701872421</v>
       </c>
       <c r="T30" t="n">
-        <v>0.08868848250265267</v>
+        <v>0.08868848250264989</v>
       </c>
       <c r="U30" t="n">
-        <v>0.009583942637652842</v>
+        <v>0.009583942637652833</v>
       </c>
       <c r="V30" t="n">
-        <v>0.00964782823322868</v>
+        <v>0.009647828233227723</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.003220600000005902</v>
+        <v>0.002780900000004749</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2966,7 +2966,7 @@
         <v>154.1506412562433</v>
       </c>
       <c r="H31" t="n">
-        <v>6.232023032382685</v>
+        <v>6.232023032382686</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2993,22 +2993,22 @@
         <v>31.06297907851061</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.008924660495022713</v>
+        <v>0.008924660495022892</v>
       </c>
       <c r="R31" t="n">
         <v>0.1724147310919763</v>
       </c>
       <c r="S31" t="n">
-        <v>0.041982681661951</v>
+        <v>0.04198268166195256</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2061381398815311</v>
+        <v>0.2061381398815348</v>
       </c>
       <c r="U31" t="n">
         <v>0.01005621520269366</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1279185234257848</v>
+        <v>0.1279185234257844</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002187500000005116</v>
+        <v>0.001652100000001155</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3045,10 +3045,10 @@
         <v>39.73820114899237</v>
       </c>
       <c r="G32" t="n">
-        <v>116.3345907937495</v>
+        <v>116.3345907937494</v>
       </c>
       <c r="H32" t="n">
-        <v>7.505523122827332</v>
+        <v>7.50552312282733</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>15.60070631823223</v>
       </c>
       <c r="P32" t="n">
-        <v>34.39346792252672</v>
+        <v>34.39346792252674</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.009661626635332659</v>
+        <v>0.009661626635332118</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2067298722169502</v>
+        <v>0.2067298722169177</v>
       </c>
       <c r="S32" t="n">
-        <v>0.07391304189569302</v>
+        <v>0.07391304189567968</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1190457355757684</v>
+        <v>0.1190457355757645</v>
       </c>
       <c r="U32" t="n">
-        <v>0.009934592596584774</v>
+        <v>0.009934592596584765</v>
       </c>
       <c r="V32" t="n">
-        <v>0.04857142064538279</v>
+        <v>0.04857142064538093</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.006130699999999933</v>
+        <v>0.001935899999999435</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3124,13 +3124,13 @@
         <v>0.01732724830893374</v>
       </c>
       <c r="F33" t="n">
-        <v>39.80983252070111</v>
+        <v>39.80983252070112</v>
       </c>
       <c r="G33" t="n">
-        <v>51.35831752978085</v>
+        <v>51.35831752978081</v>
       </c>
       <c r="H33" t="n">
-        <v>14.41876024483734</v>
+        <v>14.41876024483736</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,25 +3154,25 @@
         <v>17.02450149284057</v>
       </c>
       <c r="P33" t="n">
-        <v>50.19766693853006</v>
+        <v>50.19766693853011</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01050063966299623</v>
+        <v>0.01050063966299519</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2673832241165176</v>
+        <v>0.267383224116478</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1199257890420321</v>
+        <v>0.1199257890420075</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1740741251161068</v>
+        <v>0.1740741251160768</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01025343819940259</v>
+        <v>0.0102534381994026</v>
       </c>
       <c r="V33" t="n">
-        <v>0.02989764498138749</v>
+        <v>0.02989764498138413</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002722699999992528</v>
+        <v>0.003452100000004066</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>154.0738986617795</v>
       </c>
       <c r="H34" t="n">
-        <v>7.349629571848241</v>
+        <v>7.349629571848239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3239,22 +3239,22 @@
         <v>29.72783763986217</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.008988249359334153</v>
+        <v>0.008988249359334115</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1679027494911368</v>
+        <v>0.1679027494911393</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04537591603271698</v>
+        <v>0.04537591603271825</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1720532465711777</v>
+        <v>0.1720532465711762</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01010340298153109</v>
+        <v>0.0101034029815311</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05707479551339945</v>
+        <v>0.05707479551340003</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.005421599999991145</v>
+        <v>0.001680499999999086</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3288,13 +3288,13 @@
         <v>0.02957993173271832</v>
       </c>
       <c r="F35" t="n">
-        <v>39.90610638636513</v>
+        <v>39.90610638636514</v>
       </c>
       <c r="G35" t="n">
         <v>46.53445639294033</v>
       </c>
       <c r="H35" t="n">
-        <v>7.97651059790908</v>
+        <v>7.976510597909082</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>10.50824737947967</v>
       </c>
       <c r="P35" t="n">
-        <v>44.62274602072348</v>
+        <v>44.6227460207235</v>
       </c>
       <c r="Q35" t="n">
         <v>0.009953394128943907</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2265144186183884</v>
+        <v>0.2265144186183951</v>
       </c>
       <c r="S35" t="n">
-        <v>0.07061210329500352</v>
+        <v>0.07061210329500467</v>
       </c>
       <c r="T35" t="n">
         <v>0.2214686764144085</v>
       </c>
       <c r="U35" t="n">
-        <v>0.009601181374976024</v>
+        <v>0.009601181374976004</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1967131576052427</v>
+        <v>0.1967131576052414</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002167700000001105</v>
+        <v>0.001696900000005996</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3370,10 +3370,10 @@
         <v>359.9954479877506</v>
       </c>
       <c r="F36" t="n">
-        <v>40.12975426186505</v>
+        <v>40.12975426186504</v>
       </c>
       <c r="G36" t="n">
-        <v>7.107283638255824</v>
+        <v>7.107283638255811</v>
       </c>
       <c r="H36" t="n">
         <v>12.15483129124105</v>
@@ -3403,22 +3403,22 @@
         <v>52.07199359716851</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.009093874767684567</v>
+        <v>0.009093874767684506</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3319984802772955</v>
+        <v>0.3319984802772944</v>
       </c>
       <c r="S36" t="n">
-        <v>0.03780312520437738</v>
+        <v>0.03780312520437679</v>
       </c>
       <c r="T36" t="n">
-        <v>0.5437248370897613</v>
+        <v>0.5437248370897555</v>
       </c>
       <c r="U36" t="n">
-        <v>0.009553335915678427</v>
+        <v>0.009553335915678434</v>
       </c>
       <c r="V36" t="n">
-        <v>0.05407224200485351</v>
+        <v>0.05407224200485208</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.004479599999996253</v>
+        <v>0.001659799999998768</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9935401953911</v>
       </c>
       <c r="F37" t="n">
-        <v>40.06666787028122</v>
+        <v>40.06666787028121</v>
       </c>
       <c r="G37" t="n">
-        <v>82.85821030867145</v>
+        <v>82.8582103086715</v>
       </c>
       <c r="H37" t="n">
-        <v>6.716445665523339</v>
+        <v>6.716445665523331</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>13.40352838289847</v>
       </c>
       <c r="P37" t="n">
-        <v>39.52904106881454</v>
+        <v>39.52904106881452</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.009923054127263783</v>
+        <v>0.009923054127264021</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2191664097772579</v>
+        <v>0.2191664097772839</v>
       </c>
       <c r="S37" t="n">
-        <v>0.07566710078791405</v>
+        <v>0.075667100787924</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1592997818916113</v>
+        <v>0.1592997818916165</v>
       </c>
       <c r="U37" t="n">
         <v>0.01043723035185351</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02377447654740948</v>
+        <v>0.02377447654740702</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002494499999997402</v>
+        <v>0.002061400000002322</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3534,7 +3534,7 @@
         <v>0.009445619300578374</v>
       </c>
       <c r="F38" t="n">
-        <v>39.83266875104076</v>
+        <v>39.83266875104078</v>
       </c>
       <c r="G38" t="n">
         <v>131.5080829585814</v>
@@ -3564,25 +3564,25 @@
         <v>19.54313334464453</v>
       </c>
       <c r="P38" t="n">
-        <v>30.89231297315927</v>
+        <v>30.89231297315928</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.009642346246453916</v>
+        <v>0.009642346246453543</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2112111971334593</v>
+        <v>0.2112111971334719</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08046149991959177</v>
+        <v>0.08046149991959256</v>
       </c>
       <c r="T38" t="n">
-        <v>0.08197633533465701</v>
+        <v>0.08197633533465419</v>
       </c>
       <c r="U38" t="n">
         <v>0.01105964385263669</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02854455498757604</v>
+        <v>0.02854455498757479</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.005297800000008124</v>
+        <v>0.00206980000000101</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3616,13 +3616,13 @@
         <v>359.9827560394871</v>
       </c>
       <c r="F39" t="n">
-        <v>40.06368843337311</v>
+        <v>40.06368843337312</v>
       </c>
       <c r="G39" t="n">
         <v>169.1415635400048</v>
       </c>
       <c r="H39" t="n">
-        <v>8.229923637888055</v>
+        <v>8.229923637888062</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3649,22 +3649,22 @@
         <v>27.91197150277411</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.00829884181267692</v>
+        <v>0.00829884181267708</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1677168581016237</v>
+        <v>0.1677168581016257</v>
       </c>
       <c r="S39" t="n">
-        <v>0.03189853753420881</v>
+        <v>0.03189853753420913</v>
       </c>
       <c r="T39" t="n">
-        <v>0.239239088622098</v>
+        <v>0.2392390886221038</v>
       </c>
       <c r="U39" t="n">
         <v>0.009649502473795885</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1564894845464681</v>
+        <v>0.156489484546466</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002305000000006885</v>
+        <v>0.002418800000000942</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3698,10 +3698,10 @@
         <v>359.9781259872431</v>
       </c>
       <c r="F40" t="n">
-        <v>40.11472672379478</v>
+        <v>40.11472672379477</v>
       </c>
       <c r="G40" t="n">
-        <v>69.16793562176872</v>
+        <v>69.16793562176871</v>
       </c>
       <c r="H40" t="n">
         <v>13.40221575089301</v>
@@ -3731,22 +3731,22 @@
         <v>46.14955961925074</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01053016342588171</v>
+        <v>0.01053016342588133</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2685523270174012</v>
+        <v>0.2685523270173952</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1290683504210151</v>
+        <v>0.1290683504210103</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1280132338338185</v>
+        <v>0.1280132338338135</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01062826246090445</v>
+        <v>0.01062826246090447</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02704819931968533</v>
+        <v>0.02704819931968604</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004560499999996637</v>
+        <v>0.002906200000005299</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3810,25 +3810,25 @@
         <v>24.58528106785519</v>
       </c>
       <c r="P41" t="n">
-        <v>38.46233818780156</v>
+        <v>38.46233818780155</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01012660344585055</v>
+        <v>0.01012660344585072</v>
       </c>
       <c r="R41" t="n">
-        <v>0.252821668949347</v>
+        <v>0.2528216689493618</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1227556637890737</v>
+        <v>0.1227556637890801</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07659891649435423</v>
+        <v>0.07659891649435496</v>
       </c>
       <c r="U41" t="n">
         <v>0.01044338325819794</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02854655973834914</v>
+        <v>0.02854655973834944</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.00277160000000265</v>
+        <v>0.002059000000002698</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3862,13 +3862,13 @@
         <v>359.9959599522217</v>
       </c>
       <c r="F42" t="n">
-        <v>40.08836204432535</v>
+        <v>40.08836204432534</v>
       </c>
       <c r="G42" t="n">
-        <v>69.71670426765641</v>
+        <v>69.71670426765644</v>
       </c>
       <c r="H42" t="n">
-        <v>3.792329522985018</v>
+        <v>3.792329522985016</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3889,28 +3889,28 @@
         <v>39.01438474191893</v>
       </c>
       <c r="O42" t="n">
-        <v>7.925406435441885</v>
+        <v>7.925406435441897</v>
       </c>
       <c r="P42" t="n">
-        <v>39.42617047026613</v>
+        <v>39.42617047026611</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.009441804657740508</v>
+        <v>0.009441804657740294</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2045444395466357</v>
+        <v>0.2045444395466352</v>
       </c>
       <c r="S42" t="n">
-        <v>0.05087507320633596</v>
+        <v>0.0508750732063351</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2490497203844838</v>
+        <v>0.2490497203844761</v>
       </c>
       <c r="U42" t="n">
-        <v>0.009689085148191997</v>
+        <v>0.009689085148191981</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1982729274310051</v>
+        <v>0.1982729274310032</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.00335500000001332</v>
+        <v>0.001850400000002139</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>0.02444993520049772</v>
       </c>
       <c r="F43" t="n">
-        <v>39.98234728043398</v>
+        <v>39.98234728043397</v>
       </c>
       <c r="G43" t="n">
-        <v>51.27470512838502</v>
+        <v>51.27470512838509</v>
       </c>
       <c r="H43" t="n">
-        <v>3.129966220386994</v>
+        <v>3.129966220386989</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         <v>5.919311414671049</v>
       </c>
       <c r="P43" t="n">
-        <v>39.92855557967201</v>
+        <v>39.92855557967199</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.009126738804874765</v>
+        <v>0.009126738804874931</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2153751045660255</v>
+        <v>0.2153751045660277</v>
       </c>
       <c r="S43" t="n">
-        <v>0.04213058445299146</v>
+        <v>0.04213058445299289</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3116061728865946</v>
+        <v>0.3116061728866032</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01002336256989845</v>
+        <v>0.01002336256989843</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4805890384096815</v>
+        <v>0.4805890384096876</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002186199999997029</v>
+        <v>0.001605000000004964</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         <v>39.94558998515043</v>
       </c>
       <c r="G44" t="n">
-        <v>68.00983231220532</v>
+        <v>68.0098323122053</v>
       </c>
       <c r="H44" t="n">
         <v>14.23876269947566</v>
@@ -4056,25 +4056,25 @@
         <v>21.27708799462823</v>
       </c>
       <c r="P44" t="n">
-        <v>46.92586248751758</v>
+        <v>46.92586248751759</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01045867342144329</v>
+        <v>0.01045867342144362</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2718713670130571</v>
+        <v>0.2718713670130386</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1354772850757338</v>
+        <v>0.1354772850757299</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1274417045135825</v>
+        <v>0.127441704513587</v>
       </c>
       <c r="U44" t="n">
-        <v>0.009375284073140146</v>
+        <v>0.009375284073140186</v>
       </c>
       <c r="V44" t="n">
-        <v>0.05784350789104881</v>
+        <v>0.05784350789104793</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002670999999992318</v>
+        <v>0.001989000000001795</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,10 +4108,10 @@
         <v>359.9921558634538</v>
       </c>
       <c r="F45" t="n">
-        <v>39.8059645728638</v>
+        <v>39.80596457286378</v>
       </c>
       <c r="G45" t="n">
-        <v>20.24584021351808</v>
+        <v>20.24584021351807</v>
       </c>
       <c r="H45" t="n">
         <v>10.54956633425945</v>
@@ -4138,25 +4138,25 @@
         <v>6.448505242802804</v>
       </c>
       <c r="P45" t="n">
-        <v>49.37934733430828</v>
+        <v>49.37934733430826</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.009752965884391281</v>
+        <v>0.009752965884391411</v>
       </c>
       <c r="R45" t="n">
         <v>0.245472533527256</v>
       </c>
       <c r="S45" t="n">
-        <v>0.05483146921057491</v>
+        <v>0.05483146921057701</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3432093557883047</v>
+        <v>0.3432093557883105</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0097771908521486</v>
+        <v>0.009777190852148563</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07722042874232152</v>
+        <v>0.07722042874232195</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001991200000006188</v>
+        <v>0.001896600000002024</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4196,7 +4196,7 @@
         <v>149.8496184451265</v>
       </c>
       <c r="H46" t="n">
-        <v>4.287993725328571</v>
+        <v>4.287993725328572</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4223,22 +4223,22 @@
         <v>33.55001358136786</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.008857920031380501</v>
+        <v>0.00885792003138049</v>
       </c>
       <c r="R46" t="n">
-        <v>0.189004431632108</v>
+        <v>0.1890044316321097</v>
       </c>
       <c r="S46" t="n">
-        <v>0.03833589715234081</v>
+        <v>0.0383358971523407</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2628287896265588</v>
+        <v>0.2628287896265562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009975895699409083</v>
+        <v>0.009975895699409073</v>
       </c>
       <c r="V46" t="n">
-        <v>0.05212516827371728</v>
+        <v>0.05212516827371781</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002159800000001155</v>
+        <v>0.00170620000000099</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4272,13 +4272,13 @@
         <v>0.01087107950285791</v>
       </c>
       <c r="F47" t="n">
-        <v>40.14181995721651</v>
+        <v>40.1418199572165</v>
       </c>
       <c r="G47" t="n">
         <v>178.3064077586139</v>
       </c>
       <c r="H47" t="n">
-        <v>10.08941944084067</v>
+        <v>10.08941944084066</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4305,22 +4305,22 @@
         <v>25.4697936732781</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.007273990329964939</v>
+        <v>0.007273990329965016</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2113162752258481</v>
+        <v>0.2113162752258489</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02078731573844137</v>
+        <v>0.02078731573844171</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3176851221627434</v>
+        <v>0.317685122162748</v>
       </c>
       <c r="U47" t="n">
-        <v>0.009413759835097379</v>
+        <v>0.009413759835097386</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1677921115176045</v>
+        <v>0.1677921115176022</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002185199999999554</v>
+        <v>0.001595500000000527</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4354,10 +4354,10 @@
         <v>0.005463367532353275</v>
       </c>
       <c r="F48" t="n">
-        <v>40.02649826644557</v>
+        <v>40.02649826644558</v>
       </c>
       <c r="G48" t="n">
-        <v>141.3721717790862</v>
+        <v>141.3721717790861</v>
       </c>
       <c r="H48" t="n">
         <v>10.65992205721694</v>
@@ -4381,28 +4381,28 @@
         <v>28.96028508939844</v>
       </c>
       <c r="O48" t="n">
-        <v>18.47401618790197</v>
+        <v>18.47401618790195</v>
       </c>
       <c r="P48" t="n">
-        <v>28.90650169594294</v>
+        <v>28.90650169594295</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.009550905605997416</v>
+        <v>0.009550905605996347</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2022535306175872</v>
+        <v>0.2022535306175594</v>
       </c>
       <c r="S48" t="n">
-        <v>0.07262665324173255</v>
+        <v>0.07262665324171863</v>
       </c>
       <c r="T48" t="n">
-        <v>0.08342406273171415</v>
+        <v>0.08342406273171085</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01030477852144786</v>
+        <v>0.01030477852144787</v>
       </c>
       <c r="V48" t="n">
-        <v>0.02174671037324944</v>
+        <v>0.02174671037323905</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002462399999998865</v>
+        <v>0.001790599999999642</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4439,10 +4439,10 @@
         <v>40.12657203825714</v>
       </c>
       <c r="G49" t="n">
-        <v>20.57032249517516</v>
+        <v>20.57032249517514</v>
       </c>
       <c r="H49" t="n">
-        <v>14.5868686606932</v>
+        <v>14.58686866069322</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4466,25 +4466,25 @@
         <v>7.736885985664329</v>
       </c>
       <c r="P49" t="n">
-        <v>54.39356935051211</v>
+        <v>54.39356935051213</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01027644728390867</v>
+        <v>0.01027644728390819</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2618982492172535</v>
+        <v>0.2618982492172517</v>
       </c>
       <c r="S49" t="n">
-        <v>0.06965311760440965</v>
+        <v>0.06965311760440475</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3332369075790416</v>
+        <v>0.3332369075790179</v>
       </c>
       <c r="U49" t="n">
-        <v>0.009957852757013157</v>
+        <v>0.009957852757013176</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0222473498817132</v>
+        <v>0.0222473498817082</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.004521100000005163</v>
+        <v>0.001669700000000773</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4524,7 +4524,7 @@
         <v>3.051175515815161</v>
       </c>
       <c r="H50" t="n">
-        <v>13.91298689144315</v>
+        <v>13.91298689144316</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4548,25 +4548,25 @@
         <v>2.193710971359113</v>
       </c>
       <c r="P50" t="n">
-        <v>53.76801958850132</v>
+        <v>53.76801958850134</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.008515200850117232</v>
+        <v>0.008515200850117257</v>
       </c>
       <c r="R50" t="n">
-        <v>0.415132927362261</v>
+        <v>0.4151329273622636</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03121223673217535</v>
+        <v>0.03121223673217548</v>
       </c>
       <c r="T50" t="n">
-        <v>0.6754186621910668</v>
+        <v>0.6754186621910695</v>
       </c>
       <c r="U50" t="n">
-        <v>0.01018790485311964</v>
+        <v>0.01018790485311965</v>
       </c>
       <c r="V50" t="n">
-        <v>0.04696780031874895</v>
+        <v>0.04696780031875078</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002003800000011324</v>
+        <v>0.001374300000001938</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>39.75409266432082</v>
       </c>
       <c r="G51" t="n">
-        <v>53.48070391937893</v>
+        <v>53.48070391937899</v>
       </c>
       <c r="H51" t="n">
-        <v>5.978958593933577</v>
+        <v>5.978958593933572</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,25 +4630,25 @@
         <v>9.506852903915297</v>
       </c>
       <c r="P51" t="n">
-        <v>41.98399150648815</v>
+        <v>41.98399150648814</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.00970835891784382</v>
+        <v>0.009708358917843529</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2132285042490995</v>
+        <v>0.2132285042490928</v>
       </c>
       <c r="S51" t="n">
-        <v>0.06134547519005248</v>
+        <v>0.06134547519004831</v>
       </c>
       <c r="T51" t="n">
-        <v>0.2260626167557052</v>
+        <v>0.226062616755697</v>
       </c>
       <c r="U51" t="n">
-        <v>0.009100512362161788</v>
+        <v>0.00910051236216178</v>
       </c>
       <c r="V51" t="n">
-        <v>0.03395539183981765</v>
+        <v>0.03395539183981428</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.00499369999999999</v>
+        <v>0.001381399999999644</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4685,10 +4685,10 @@
         <v>39.97279179578069</v>
       </c>
       <c r="G52" t="n">
-        <v>88.19447699825518</v>
+        <v>88.1944769982553</v>
       </c>
       <c r="H52" t="n">
-        <v>5.757576319029935</v>
+        <v>5.757576319029931</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>12.1282878505477</v>
       </c>
       <c r="P52" t="n">
-        <v>38.43192983595004</v>
+        <v>38.43192983595002</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.009761633496328411</v>
+        <v>0.009761633496328475</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2095555472613109</v>
+        <v>0.2095555472612932</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06785162596339359</v>
+        <v>0.06785162596338892</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1702413302916653</v>
+        <v>0.1702413302916674</v>
       </c>
       <c r="U52" t="n">
-        <v>0.009803930776050917</v>
+        <v>0.009803930776050929</v>
       </c>
       <c r="V52" t="n">
-        <v>0.03492123086907493</v>
+        <v>0.03492123086906924</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002291200000001936</v>
+        <v>0.001749900000000082</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4767,10 +4767,10 @@
         <v>39.79234476275702</v>
       </c>
       <c r="G53" t="n">
-        <v>116.8786823331145</v>
+        <v>116.8786823331144</v>
       </c>
       <c r="H53" t="n">
-        <v>3.388186617230073</v>
+        <v>3.38818661723007</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4797,22 +4797,22 @@
         <v>35.66186375344353</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.009111655617027339</v>
+        <v>0.009111655617027248</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1886731728735146</v>
+        <v>0.1886731728735137</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04527597176120988</v>
+        <v>0.04527597176120868</v>
       </c>
       <c r="T53" t="n">
-        <v>0.2355707892383565</v>
+        <v>0.2355707892383537</v>
       </c>
       <c r="U53" t="n">
-        <v>0.009731960821451393</v>
+        <v>0.009731960821451405</v>
       </c>
       <c r="V53" t="n">
-        <v>0.2368046176903775</v>
+        <v>0.2368046176903826</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.005024499999990439</v>
+        <v>0.00159940000000347</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>40.22741696555695</v>
       </c>
       <c r="G54" t="n">
-        <v>142.9347770965714</v>
+        <v>142.9347770965713</v>
       </c>
       <c r="H54" t="n">
-        <v>3.028138853543657</v>
+        <v>3.028138853543649</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4876,25 +4876,25 @@
         <v>5.507742037672299</v>
       </c>
       <c r="P54" t="n">
-        <v>34.87248640675477</v>
+        <v>34.87248640675478</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.008692084395562193</v>
+        <v>0.008692084395562174</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2018139089484603</v>
+        <v>0.2018139089484641</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03574404342369344</v>
+        <v>0.0357440434236927</v>
       </c>
       <c r="T54" t="n">
-        <v>0.2985183922923755</v>
+        <v>0.2985183922923774</v>
       </c>
       <c r="U54" t="n">
-        <v>0.009231362506755405</v>
+        <v>0.009231362506755407</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3850897214397228</v>
+        <v>0.3850897214397331</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002405800000005343</v>
+        <v>0.001551900000002604</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4931,7 +4931,7 @@
         <v>39.9768557372935</v>
       </c>
       <c r="G55" t="n">
-        <v>152.0693720015354</v>
+        <v>152.0693720015355</v>
       </c>
       <c r="H55" t="n">
         <v>9.675583915401617</v>
@@ -4958,25 +4958,25 @@
         <v>13.69031201351981</v>
       </c>
       <c r="P55" t="n">
-        <v>27.89477433998028</v>
+        <v>27.89477433998027</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.009255611609269467</v>
+        <v>0.009255611609269517</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1773443925043096</v>
+        <v>0.1773443925042968</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0555679184249979</v>
+        <v>0.05556791842499545</v>
       </c>
       <c r="T55" t="n">
-        <v>0.116395427038075</v>
+        <v>0.1163954270380782</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01121790704476118</v>
+        <v>0.01121790704476122</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02892335029731944</v>
+        <v>0.02892335029731738</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.005256099999996877</v>
+        <v>0.002028299999999206</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5010,13 +5010,13 @@
         <v>0.01960493319951151</v>
       </c>
       <c r="F56" t="n">
-        <v>39.71592355281807</v>
+        <v>39.71592355281806</v>
       </c>
       <c r="G56" t="n">
-        <v>76.96813456475176</v>
+        <v>76.96813456475182</v>
       </c>
       <c r="H56" t="n">
-        <v>7.190687711459741</v>
+        <v>7.190687711459735</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>13.80025877630083</v>
       </c>
       <c r="P56" t="n">
-        <v>40.20591373852068</v>
+        <v>40.20591373852066</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.009875571489417987</v>
+        <v>0.009875571489418028</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2200757265722911</v>
+        <v>0.2200757265722898</v>
       </c>
       <c r="S56" t="n">
-        <v>0.07825414810948172</v>
+        <v>0.07825414810948235</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1577808237750837</v>
+        <v>0.1577808237750848</v>
       </c>
       <c r="U56" t="n">
-        <v>0.009838322144020464</v>
+        <v>0.009838322144020485</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1143043863535449</v>
+        <v>0.114304386353549</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002711099999999078</v>
+        <v>0.001964099999995028</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,13 +5092,13 @@
         <v>359.9902255915796</v>
       </c>
       <c r="F57" t="n">
-        <v>40.09779600232538</v>
+        <v>40.09779600232539</v>
       </c>
       <c r="G57" t="n">
-        <v>16.69861597729108</v>
+        <v>16.6986159772911</v>
       </c>
       <c r="H57" t="n">
-        <v>14.89937679146949</v>
+        <v>14.89937679146948</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>6.582169652832282</v>
       </c>
       <c r="P57" t="n">
-        <v>54.96903612953616</v>
+        <v>54.96903612953614</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01014358536258282</v>
+        <v>0.01014358536258301</v>
       </c>
       <c r="R57" t="n">
-        <v>0.267909727748089</v>
+        <v>0.2679097277480926</v>
       </c>
       <c r="S57" t="n">
-        <v>0.06261944734167639</v>
+        <v>0.06261944734167758</v>
       </c>
       <c r="T57" t="n">
-        <v>0.3728745992146809</v>
+        <v>0.372874599214692</v>
       </c>
       <c r="U57" t="n">
-        <v>0.009769202644262457</v>
+        <v>0.009769202644262443</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0577416836989662</v>
+        <v>0.05774168369896181</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002737199999998552</v>
+        <v>0.001694100000001697</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5180,7 +5180,7 @@
         <v>176.8986697221328</v>
       </c>
       <c r="H58" t="n">
-        <v>6.856680087950883</v>
+        <v>6.856680087950868</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>3.153448194663473</v>
       </c>
       <c r="P58" t="n">
-        <v>29.25822989950467</v>
+        <v>29.25822989950468</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.007411203804597307</v>
+        <v>0.007411203804597257</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2374331016859458</v>
+        <v>0.2374331016859461</v>
       </c>
       <c r="S58" t="n">
-        <v>0.02204092977907125</v>
+        <v>0.02204092977907098</v>
       </c>
       <c r="T58" t="n">
-        <v>0.3616408266030957</v>
+        <v>0.3616408266030924</v>
       </c>
       <c r="U58" t="n">
-        <v>0.009598165150231012</v>
+        <v>0.009598165150231054</v>
       </c>
       <c r="V58" t="n">
-        <v>0.0754885803455275</v>
+        <v>0.0754885803455337</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002007500000004825</v>
+        <v>0.001440999999999804</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5259,10 +5259,10 @@
         <v>39.6197589612859</v>
       </c>
       <c r="G59" t="n">
-        <v>14.22536239170699</v>
+        <v>14.22536239170696</v>
       </c>
       <c r="H59" t="n">
-        <v>6.49124656081918</v>
+        <v>6.491246560819194</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5289,22 +5289,22 @@
         <v>44.66028211044716</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.008796630978629162</v>
+        <v>0.008796630978629282</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2696593079760896</v>
+        <v>0.26965930797609</v>
       </c>
       <c r="S59" t="n">
-        <v>0.03613417157868352</v>
+        <v>0.03613417157868429</v>
       </c>
       <c r="T59" t="n">
-        <v>0.4310419458901277</v>
+        <v>0.4310419458901348</v>
       </c>
       <c r="U59" t="n">
-        <v>0.01090763902295841</v>
+        <v>0.0109076390229584</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3719643724862464</v>
+        <v>0.3719643724862536</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001895399999995107</v>
+        <v>0.001491000000001463</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>359.9947775130255</v>
       </c>
       <c r="F60" t="n">
-        <v>39.57863831201264</v>
+        <v>39.57863831201261</v>
       </c>
       <c r="G60" t="n">
         <v>64.63746454990118</v>
       </c>
       <c r="H60" t="n">
-        <v>8.416934739002327</v>
+        <v>8.41693473900232</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>13.99899077745566</v>
       </c>
       <c r="P60" t="n">
-        <v>42.55250141943284</v>
+        <v>42.55250141943282</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01000561152160118</v>
+        <v>0.01000561152160079</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2279998066899052</v>
+        <v>0.2279998066898745</v>
       </c>
       <c r="S60" t="n">
-        <v>0.08389495468714735</v>
+        <v>0.08389495468713497</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1652430432999527</v>
+        <v>0.1652430432999417</v>
       </c>
       <c r="U60" t="n">
-        <v>0.009422845981646935</v>
+        <v>0.009422845981646968</v>
       </c>
       <c r="V60" t="n">
-        <v>0.04414686238676721</v>
+        <v>0.04414686238676593</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00246110000000499</v>
+        <v>0.002865900000003307</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5423,10 +5423,10 @@
         <v>39.88739715727577</v>
       </c>
       <c r="G61" t="n">
-        <v>167.2349452124496</v>
+        <v>167.2349452124497</v>
       </c>
       <c r="H61" t="n">
-        <v>5.066528805748398</v>
+        <v>5.066528805748408</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5450,25 +5450,25 @@
         <v>4.597501828447002</v>
       </c>
       <c r="P61" t="n">
-        <v>31.44263760899492</v>
+        <v>31.44263760899491</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.008138016201237301</v>
+        <v>0.008138016201237129</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2033835346173934</v>
+        <v>0.2033835346173958</v>
       </c>
       <c r="S61" t="n">
-        <v>0.02903925828905333</v>
+        <v>0.02903925828905207</v>
       </c>
       <c r="T61" t="n">
-        <v>0.3122825578581989</v>
+        <v>0.3122825578581903</v>
       </c>
       <c r="U61" t="n">
-        <v>0.01004618873652589</v>
+        <v>0.01004618873652591</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1335140022576068</v>
+        <v>0.1335140022576142</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002252200000000926</v>
+        <v>0.004265700000004813</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,13 +5502,13 @@
         <v>359.9883548727698</v>
       </c>
       <c r="F62" t="n">
-        <v>40.34115297278187</v>
+        <v>40.34115297278188</v>
       </c>
       <c r="G62" t="n">
-        <v>53.4854968748231</v>
+        <v>53.48549687482308</v>
       </c>
       <c r="H62" t="n">
-        <v>5.398402461066199</v>
+        <v>5.398402461066201</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>8.708328553504741</v>
       </c>
       <c r="P62" t="n">
-        <v>42.06434143984379</v>
+        <v>42.06434143984381</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.009753667185745062</v>
+        <v>0.009753667185744821</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2164362785377954</v>
+        <v>0.2164362785377995</v>
       </c>
       <c r="S62" t="n">
-        <v>0.05824669478323594</v>
+        <v>0.05824669478323581</v>
       </c>
       <c r="T62" t="n">
-        <v>0.2439352300543572</v>
+        <v>0.243935230054351</v>
       </c>
       <c r="U62" t="n">
         <v>0.01070634648359997</v>
       </c>
       <c r="V62" t="n">
-        <v>0.1182290105398496</v>
+        <v>0.118229010539851</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002197400000000016</v>
+        <v>0.003563499999998498</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5587,10 +5587,10 @@
         <v>40.17211119118811</v>
       </c>
       <c r="G63" t="n">
-        <v>148.0856304781256</v>
+        <v>148.0856304781257</v>
       </c>
       <c r="H63" t="n">
-        <v>5.180504885640336</v>
+        <v>5.180504885640346</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5614,25 +5614,25 @@
         <v>7.868544294566957</v>
       </c>
       <c r="P63" t="n">
-        <v>32.58565152916062</v>
+        <v>32.58565152916061</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.009000002068621964</v>
+        <v>0.009000002068622125</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1789158846712074</v>
+        <v>0.1789158846712101</v>
       </c>
       <c r="S63" t="n">
-        <v>0.04262074171529592</v>
+        <v>0.04262074171529742</v>
       </c>
       <c r="T63" t="n">
-        <v>0.2201359924824932</v>
+        <v>0.2201359924824977</v>
       </c>
       <c r="U63" t="n">
-        <v>0.01031605670490053</v>
+        <v>0.0103160567049005</v>
       </c>
       <c r="V63" t="n">
-        <v>0.02440856911612948</v>
+        <v>0.02440856911613134</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002352599999994709</v>
+        <v>0.001835100000000978</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>6.362351987564246</v>
       </c>
       <c r="H64" t="n">
-        <v>8.444495119864246</v>
+        <v>8.444495119864229</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>2.747388151551684</v>
       </c>
       <c r="P64" t="n">
-        <v>47.95462401583013</v>
+        <v>47.95462401583012</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.008655451492298702</v>
+        <v>0.008655451492298717</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3476749356392148</v>
+        <v>0.3476749356392081</v>
       </c>
       <c r="S64" t="n">
-        <v>0.03186066777188974</v>
+        <v>0.03186066777189029</v>
       </c>
       <c r="T64" t="n">
         <v>0.5621537495607013</v>
       </c>
       <c r="U64" t="n">
-        <v>0.008940381264095418</v>
+        <v>0.008940381264095409</v>
       </c>
       <c r="V64" t="n">
-        <v>0.1306827363583175</v>
+        <v>0.130682736358323</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002037000000001399</v>
+        <v>0.00146039999999914</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9968940542077</v>
       </c>
       <c r="F65" t="n">
-        <v>40.1031547608855</v>
+        <v>40.10315476088549</v>
       </c>
       <c r="G65" t="n">
-        <v>100.0788758906278</v>
+        <v>100.0788758906277</v>
       </c>
       <c r="H65" t="n">
-        <v>7.774571323863434</v>
+        <v>7.774571323863431</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>16.10743081584219</v>
       </c>
       <c r="P65" t="n">
-        <v>37.31912758697251</v>
+        <v>37.31912758697249</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.009935358511810271</v>
+        <v>0.009935358511810127</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2222092235939588</v>
+        <v>0.2222092235939528</v>
       </c>
       <c r="S65" t="n">
-        <v>0.08289691181595345</v>
+        <v>0.0828969118159497</v>
       </c>
       <c r="T65" t="n">
-        <v>0.1246637595560192</v>
+        <v>0.1246637595560165</v>
       </c>
       <c r="U65" t="n">
-        <v>0.00959692064594291</v>
+        <v>0.009596920645942943</v>
       </c>
       <c r="V65" t="n">
-        <v>0.01771940564368345</v>
+        <v>0.01771940564368053</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002827499999995098</v>
+        <v>0.001844399999995971</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.0274573210533127</v>
       </c>
       <c r="F66" t="n">
-        <v>40.02242401103243</v>
+        <v>40.0224240110324</v>
       </c>
       <c r="G66" t="n">
         <v>68.89284277014895</v>
       </c>
       <c r="H66" t="n">
-        <v>9.708000978406794</v>
+        <v>9.708000978406785</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>16.16363229851225</v>
       </c>
       <c r="P66" t="n">
-        <v>43.31338696517574</v>
+        <v>43.3133869651757</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01018034846004901</v>
+        <v>0.01018034846004981</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2425283618176261</v>
+        <v>0.2425283618176574</v>
       </c>
       <c r="S66" t="n">
-        <v>0.09711099435076564</v>
+        <v>0.09711099435078323</v>
       </c>
       <c r="T66" t="n">
-        <v>0.1481275559554918</v>
+        <v>0.1481275559555103</v>
       </c>
       <c r="U66" t="n">
-        <v>0.01079693392628233</v>
+        <v>0.01079693392628235</v>
       </c>
       <c r="V66" t="n">
-        <v>0.04740163475885673</v>
+        <v>0.04740163475886036</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.004349799999999959</v>
+        <v>0.002170800000001805</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>39.94579901351243</v>
       </c>
       <c r="G67" t="n">
-        <v>39.12113455394488</v>
+        <v>39.12113455394493</v>
       </c>
       <c r="H67" t="n">
-        <v>3.365068899540139</v>
+        <v>3.365068899540132</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,25 +5942,25 @@
         <v>5.264705861880238</v>
       </c>
       <c r="P67" t="n">
-        <v>40.63365193886163</v>
+        <v>40.63365193886162</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.009011417735271383</v>
+        <v>0.00901141773527127</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2259876328017588</v>
+        <v>0.2259876328017578</v>
       </c>
       <c r="S67" t="n">
-        <v>0.03967915522260739</v>
+        <v>0.03967915522260678</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3407021064545471</v>
+        <v>0.3407021064545415</v>
       </c>
       <c r="U67" t="n">
-        <v>0.009921528871139942</v>
+        <v>0.009921528871139925</v>
       </c>
       <c r="V67" t="n">
-        <v>0.01918515605866818</v>
+        <v>0.0191851560586726</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.00219609999999193</v>
+        <v>0.003517399999999782</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,10 +5997,10 @@
         <v>39.80501724479571</v>
       </c>
       <c r="G68" t="n">
-        <v>28.3866503247365</v>
+        <v>28.38665032473646</v>
       </c>
       <c r="H68" t="n">
-        <v>4.451241137657341</v>
+        <v>4.451241137657349</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6024,25 +6024,25 @@
         <v>5.052765358320128</v>
       </c>
       <c r="P68" t="n">
-        <v>42.05129040782608</v>
+        <v>42.05129040782611</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.009000837087479754</v>
+        <v>0.00900083708747984</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2336643302973574</v>
+        <v>0.233664330297358</v>
       </c>
       <c r="S68" t="n">
-        <v>0.0398193497988221</v>
+        <v>0.03981934979882225</v>
       </c>
       <c r="T68" t="n">
-        <v>0.3565939242158073</v>
+        <v>0.3565939242158105</v>
       </c>
       <c r="U68" t="n">
-        <v>0.009812530696295355</v>
+        <v>0.009812530696295367</v>
       </c>
       <c r="V68" t="n">
-        <v>0.1161932503170226</v>
+        <v>0.1161932503170164</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002152699999996344</v>
+        <v>0.001667000000004748</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,7 +6076,7 @@
         <v>0.02596183188254423</v>
       </c>
       <c r="F69" t="n">
-        <v>39.67463233789372</v>
+        <v>39.6746323378937</v>
       </c>
       <c r="G69" t="n">
         <v>98.55486773591014</v>
@@ -6103,28 +6103,28 @@
         <v>38.98056188996542</v>
       </c>
       <c r="O69" t="n">
-        <v>25.78833141717925</v>
+        <v>25.78833141717926</v>
       </c>
       <c r="P69" t="n">
-        <v>38.55358147075047</v>
+        <v>38.55358147075046</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01006900764654355</v>
+        <v>0.01006900764654275</v>
       </c>
       <c r="R69" t="n">
-        <v>0.255840338691408</v>
+        <v>0.2558403386913478</v>
       </c>
       <c r="S69" t="n">
-        <v>0.12827811677123</v>
+        <v>0.1282781167712009</v>
       </c>
       <c r="T69" t="n">
-        <v>0.07178995030560281</v>
+        <v>0.07178995030559912</v>
       </c>
       <c r="U69" t="n">
-        <v>0.009744587372328278</v>
+        <v>0.009744587372328299</v>
       </c>
       <c r="V69" t="n">
-        <v>0.0641592229561975</v>
+        <v>0.06415922295619136</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003051800000008598</v>
+        <v>0.002504399999999407</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>39.89954983043707</v>
       </c>
       <c r="G70" t="n">
-        <v>47.61036615808503</v>
+        <v>47.61036615808514</v>
       </c>
       <c r="H70" t="n">
-        <v>3.445823445590561</v>
+        <v>3.445823445590553</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>6.009876368948071</v>
       </c>
       <c r="P70" t="n">
-        <v>40.29231892387076</v>
+        <v>40.29231892387075</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.009130811937032284</v>
+        <v>0.009130811937032468</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2150764874744079</v>
+        <v>0.2150764874744044</v>
       </c>
       <c r="S70" t="n">
-        <v>0.04285897727236734</v>
+        <v>0.04285897727236731</v>
       </c>
       <c r="T70" t="n">
-        <v>0.3087621218616444</v>
+        <v>0.3087621218616508</v>
       </c>
       <c r="U70" t="n">
         <v>0.01006036988619907</v>
       </c>
       <c r="V70" t="n">
-        <v>0.08593207275126299</v>
+        <v>0.0859320727512721</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002186199999997029</v>
+        <v>0.0016213000000036</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.01542578721730828</v>
       </c>
       <c r="F71" t="n">
-        <v>39.44985720484105</v>
+        <v>39.44985720484109</v>
       </c>
       <c r="G71" t="n">
-        <v>53.33516156039973</v>
+        <v>53.33516156039974</v>
       </c>
       <c r="H71" t="n">
-        <v>12.45827534303861</v>
+        <v>12.45827534303862</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6270,25 +6270,25 @@
         <v>16.05945872424936</v>
       </c>
       <c r="P71" t="n">
-        <v>47.61891161608863</v>
+        <v>47.61891161608869</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01027835213887345</v>
+        <v>0.01027835213887398</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2516873314513363</v>
+        <v>0.2516873314513515</v>
       </c>
       <c r="S71" t="n">
-        <v>0.1064721632752809</v>
+        <v>0.1064721632752891</v>
       </c>
       <c r="T71" t="n">
-        <v>0.1691895232597411</v>
+        <v>0.1691895232597521</v>
       </c>
       <c r="U71" t="n">
-        <v>0.01045601689873604</v>
+        <v>0.01045601689873601</v>
       </c>
       <c r="V71" t="n">
-        <v>0.08113147606893656</v>
+        <v>0.08113147606893251</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002729599999995003</v>
+        <v>0.001939499999998873</v>
       </c>
       <c r="Y71" t="n">
         <v>10</v>
@@ -6322,10 +6322,10 @@
         <v>0.01229192941966597</v>
       </c>
       <c r="F72" t="n">
-        <v>39.8390784326399</v>
+        <v>39.83907843263989</v>
       </c>
       <c r="G72" t="n">
-        <v>167.1287661884157</v>
+        <v>167.1287661884158</v>
       </c>
       <c r="H72" t="n">
         <v>13.45692002651335</v>
@@ -6352,25 +6352,25 @@
         <v>12.53602135567816</v>
       </c>
       <c r="P72" t="n">
-        <v>22.00476623916633</v>
+        <v>22.00476623916632</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.008728527245255474</v>
+        <v>0.008728527245254995</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1486946728228975</v>
+        <v>0.1486946728228876</v>
       </c>
       <c r="S72" t="n">
-        <v>0.04312337532185461</v>
+        <v>0.04312337532185027</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1113260474669867</v>
+        <v>0.1113260474669828</v>
       </c>
       <c r="U72" t="n">
-        <v>0.01009404062086307</v>
+        <v>0.01009404062086313</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02524525177532695</v>
+        <v>0.02524525177532944</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002161799999996106</v>
+        <v>0.001596400000003939</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6404,13 +6404,13 @@
         <v>0.006960019667686744</v>
       </c>
       <c r="F73" t="n">
-        <v>40.11270134264137</v>
+        <v>40.11270134264135</v>
       </c>
       <c r="G73" t="n">
-        <v>34.52809478092871</v>
+        <v>34.52809478092868</v>
       </c>
       <c r="H73" t="n">
-        <v>7.359082221598674</v>
+        <v>7.359082221598675</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>7.860056562412383</v>
       </c>
       <c r="P73" t="n">
-        <v>45.19627706140479</v>
+        <v>45.19627706140477</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.009784383562029099</v>
+        <v>0.009784383562029089</v>
       </c>
       <c r="R73" t="n">
-        <v>0.2267442484113552</v>
+        <v>0.2267442484113547</v>
       </c>
       <c r="S73" t="n">
-        <v>0.05787155089151879</v>
+        <v>0.05787155089151771</v>
       </c>
       <c r="T73" t="n">
         <v>0.279314845809439</v>
       </c>
       <c r="U73" t="n">
-        <v>0.009788555387254991</v>
+        <v>0.00978855538725496</v>
       </c>
       <c r="V73" t="n">
-        <v>0.1296153604258644</v>
+        <v>0.1296153604258636</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002106699999998796</v>
+        <v>0.001451199999998209</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6486,13 +6486,13 @@
         <v>359.9916999305412</v>
       </c>
       <c r="F74" t="n">
-        <v>39.98224372184676</v>
+        <v>39.98224372184677</v>
       </c>
       <c r="G74" t="n">
-        <v>18.93078226775187</v>
+        <v>18.93078226775186</v>
       </c>
       <c r="H74" t="n">
-        <v>11.48234737818437</v>
+        <v>11.48234737818438</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,25 +6516,25 @@
         <v>6.379412513497284</v>
       </c>
       <c r="P74" t="n">
-        <v>50.7134402590427</v>
+        <v>50.71344025904272</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.009852725810525469</v>
+        <v>0.009852725810525454</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2521737912281454</v>
+        <v>0.2521737912281385</v>
       </c>
       <c r="S74" t="n">
-        <v>0.05611320819830907</v>
+        <v>0.0561132081983063</v>
       </c>
       <c r="T74" t="n">
-        <v>0.3542432242640221</v>
+        <v>0.3542432242640173</v>
       </c>
       <c r="U74" t="n">
-        <v>0.01008871810742028</v>
+        <v>0.01008871810742029</v>
       </c>
       <c r="V74" t="n">
-        <v>0.07823801653687093</v>
+        <v>0.07823801653687479</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002276199999997175</v>
+        <v>0.001378800000004787</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6568,13 +6568,13 @@
         <v>359.9919262419468</v>
       </c>
       <c r="F75" t="n">
-        <v>40.30353696374069</v>
+        <v>40.3035369637407</v>
       </c>
       <c r="G75" t="n">
-        <v>115.1924689988691</v>
+        <v>115.1924689988692</v>
       </c>
       <c r="H75" t="n">
-        <v>9.554947856815048</v>
+        <v>9.554947856815051</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>34.77708578081912</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.009969074649893881</v>
+        <v>0.009969074649892986</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2280147484986819</v>
+        <v>0.2280147484986428</v>
       </c>
       <c r="S75" t="n">
-        <v>0.09051860583416096</v>
+        <v>0.09051860583414358</v>
       </c>
       <c r="T75" t="n">
-        <v>0.09276675541917308</v>
+        <v>0.09276675541916717</v>
       </c>
       <c r="U75" t="n">
-        <v>0.009105392276873263</v>
+        <v>0.009105392276873337</v>
       </c>
       <c r="V75" t="n">
-        <v>0.05999271681561132</v>
+        <v>0.05999271681561084</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002833500000008371</v>
+        <v>0.001958899999998209</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6653,10 +6653,10 @@
         <v>39.92233254575993</v>
       </c>
       <c r="G76" t="n">
-        <v>36.45366530123312</v>
+        <v>36.45366530123314</v>
       </c>
       <c r="H76" t="n">
-        <v>12.36222609667016</v>
+        <v>12.36222609667015</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6680,25 +6680,25 @@
         <v>11.45635315888295</v>
       </c>
       <c r="P76" t="n">
-        <v>50.23900093094351</v>
+        <v>50.2390009309435</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.01033901557924866</v>
+        <v>0.01033901557924858</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2500305810507867</v>
+        <v>0.2500305810507893</v>
       </c>
       <c r="S76" t="n">
-        <v>0.08613563708384063</v>
+        <v>0.0861356370838407</v>
       </c>
       <c r="T76" t="n">
-        <v>0.2342034242649757</v>
+        <v>0.2342034242649739</v>
       </c>
       <c r="U76" t="n">
-        <v>0.009105002078115839</v>
+        <v>0.00910500207811589</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01769366623951162</v>
+        <v>0.01769366623951459</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00240630000000408</v>
+        <v>0.001903900000002068</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6732,13 +6732,13 @@
         <v>359.9804930789919</v>
       </c>
       <c r="F77" t="n">
-        <v>40.31984479504519</v>
+        <v>40.31984479504518</v>
       </c>
       <c r="G77" t="n">
-        <v>100.3842986962</v>
+        <v>100.3842986962001</v>
       </c>
       <c r="H77" t="n">
-        <v>3.851786259626949</v>
+        <v>3.851786259626948</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>8.792918046282043</v>
       </c>
       <c r="P77" t="n">
-        <v>37.3088204478739</v>
+        <v>37.30882044787387</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.009472086124531306</v>
+        <v>0.009472086124531275</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1981985491497223</v>
+        <v>0.1981985491497228</v>
       </c>
       <c r="S77" t="n">
-        <v>0.05223424781999583</v>
+        <v>0.05223424781999535</v>
       </c>
       <c r="T77" t="n">
         <v>0.2203724513038507</v>
       </c>
       <c r="U77" t="n">
-        <v>0.009584035886179808</v>
+        <v>0.009584035886179804</v>
       </c>
       <c r="V77" t="n">
-        <v>0.1183506974336338</v>
+        <v>0.1183506974336286</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.00218199999999058</v>
+        <v>0.001561199999997598</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,13 +6814,13 @@
         <v>359.993022184957</v>
       </c>
       <c r="F78" t="n">
-        <v>39.91540353312173</v>
+        <v>39.91540353312174</v>
       </c>
       <c r="G78" t="n">
-        <v>55.93055329543683</v>
+        <v>55.9305532954368</v>
       </c>
       <c r="H78" t="n">
-        <v>12.82026777018979</v>
+        <v>12.8202677701898</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6844,25 +6844,25 @@
         <v>16.85268943278963</v>
       </c>
       <c r="P78" t="n">
-        <v>47.97778436170724</v>
+        <v>47.97778436170726</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01045415699903524</v>
+        <v>0.01045415699903498</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2601875428101056</v>
+        <v>0.2601875428100965</v>
       </c>
       <c r="S78" t="n">
-        <v>0.112929454729462</v>
+        <v>0.112929454729456</v>
       </c>
       <c r="T78" t="n">
-        <v>0.1638136680896548</v>
+        <v>0.1638136680896485</v>
       </c>
       <c r="U78" t="n">
-        <v>0.00953360654618839</v>
+        <v>0.009533606546188371</v>
       </c>
       <c r="V78" t="n">
-        <v>0.007983031117686735</v>
+        <v>0.007983031117683691</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00280720000000656</v>
+        <v>0.002099199999996415</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6902,7 +6902,7 @@
         <v>165.3446537299731</v>
       </c>
       <c r="H79" t="n">
-        <v>10.6399712210224</v>
+        <v>10.63997122102241</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6929,22 +6929,22 @@
         <v>25.370231677269</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.008728436048203749</v>
+        <v>0.008728436048203718</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1523129474339117</v>
+        <v>0.1523129474339094</v>
       </c>
       <c r="S79" t="n">
-        <v>0.04081284111623384</v>
+        <v>0.04081284111623363</v>
       </c>
       <c r="T79" t="n">
         <v>0.1527941051538539</v>
       </c>
       <c r="U79" t="n">
-        <v>0.00998623083075173</v>
+        <v>0.009986230830751747</v>
       </c>
       <c r="V79" t="n">
-        <v>0.02220256763960839</v>
+        <v>0.02220256763960692</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002336300000010283</v>
+        <v>0.00204509999999658</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -6978,10 +6978,10 @@
         <v>359.991207270558</v>
       </c>
       <c r="F80" t="n">
-        <v>40.33599866705027</v>
+        <v>40.33599866705026</v>
       </c>
       <c r="G80" t="n">
-        <v>9.013162936473178</v>
+        <v>9.013162936473165</v>
       </c>
       <c r="H80" t="n">
         <v>10.88696265657284</v>
@@ -7008,25 +7008,25 @@
         <v>3.629349811077549</v>
       </c>
       <c r="P80" t="n">
-        <v>50.72440835468068</v>
+        <v>50.7244083546807</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.009193244639899538</v>
+        <v>0.009193244639899525</v>
       </c>
       <c r="R80" t="n">
-        <v>0.3106751486709878</v>
+        <v>0.3106751486709861</v>
       </c>
       <c r="S80" t="n">
-        <v>0.03926570659713219</v>
+        <v>0.03926570659713233</v>
       </c>
       <c r="T80" t="n">
-        <v>0.5044397513655892</v>
+        <v>0.5044397513655869</v>
       </c>
       <c r="U80" t="n">
         <v>0.0100446016022802</v>
       </c>
       <c r="V80" t="n">
-        <v>0.07821184212729</v>
+        <v>0.07821184212728753</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001910599999987994</v>
+        <v>0.001402699999999868</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7063,10 +7063,10 @@
         <v>40.19780519189712</v>
       </c>
       <c r="G81" t="n">
-        <v>88.40673035853617</v>
+        <v>88.40673035853615</v>
       </c>
       <c r="H81" t="n">
-        <v>8.766440830953167</v>
+        <v>8.766440830953163</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7087,28 +7087,28 @@
         <v>39.09485972400436</v>
       </c>
       <c r="O81" t="n">
-        <v>17.11943391913618</v>
+        <v>17.11943391913617</v>
       </c>
       <c r="P81" t="n">
         <v>39.62979887706988</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.0101526275648636</v>
+        <v>0.01015262756486444</v>
       </c>
       <c r="R81" t="n">
-        <v>0.2350295325953821</v>
+        <v>0.235029532595416</v>
       </c>
       <c r="S81" t="n">
-        <v>0.09305070325821149</v>
+        <v>0.09305070325822794</v>
       </c>
       <c r="T81" t="n">
-        <v>0.1247149478088504</v>
+        <v>0.1247149478088625</v>
       </c>
       <c r="U81" t="n">
-        <v>0.009434241304947405</v>
+        <v>0.009434241304947414</v>
       </c>
       <c r="V81" t="n">
-        <v>0.1100006792069837</v>
+        <v>0.1100006792069905</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.004776100000000838</v>
+        <v>0.001916600000001267</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7142,13 +7142,13 @@
         <v>359.9967631240706</v>
       </c>
       <c r="F82" t="n">
-        <v>39.91651028799223</v>
+        <v>39.91651028799226</v>
       </c>
       <c r="G82" t="n">
         <v>94.57091487684536</v>
       </c>
       <c r="H82" t="n">
-        <v>11.33663993764159</v>
+        <v>11.3366399376416</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7169,28 +7169,28 @@
         <v>39.33727404337365</v>
       </c>
       <c r="O82" t="n">
-        <v>22.13137015298138</v>
+        <v>22.13137015298139</v>
       </c>
       <c r="P82" t="n">
-        <v>39.09654323356579</v>
+        <v>39.09654323356582</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01015157036910759</v>
+        <v>0.01015157036910669</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2482129671633347</v>
+        <v>0.2482129671632639</v>
       </c>
       <c r="S82" t="n">
-        <v>0.1139499091014917</v>
+        <v>0.1139499091014586</v>
       </c>
       <c r="T82" t="n">
-        <v>0.09060311923208515</v>
+        <v>0.09060311923207884</v>
       </c>
       <c r="U82" t="n">
-        <v>0.00954714500077195</v>
+        <v>0.009547145000771912</v>
       </c>
       <c r="V82" t="n">
-        <v>0.04215209398647318</v>
+        <v>0.04215209398647714</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002679700000001617</v>
+        <v>0.001899800000003893</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7224,13 +7224,13 @@
         <v>0.02356243557424049</v>
       </c>
       <c r="F83" t="n">
-        <v>40.31862237803039</v>
+        <v>40.31862237803038</v>
       </c>
       <c r="G83" t="n">
-        <v>66.12895702960132</v>
+        <v>66.12895702960138</v>
       </c>
       <c r="H83" t="n">
-        <v>6.962186969637802</v>
+        <v>6.962186969637798</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>12.12602132818495</v>
       </c>
       <c r="P83" t="n">
-        <v>42.02077164056637</v>
+        <v>42.02077164056636</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01000873072170418</v>
+        <v>0.01000873072170397</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2254720481631843</v>
+        <v>0.2254720481631836</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0747138083534018</v>
+        <v>0.07471380835340047</v>
       </c>
       <c r="T83" t="n">
-        <v>0.1859412840971927</v>
+        <v>0.1859412840971881</v>
       </c>
       <c r="U83" t="n">
-        <v>0.01011793893305523</v>
+        <v>0.01011793893305525</v>
       </c>
       <c r="V83" t="n">
-        <v>0.1062337904386553</v>
+        <v>0.1062337904386586</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.004335600000004547</v>
+        <v>0.001849499999998727</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.9838318030245</v>
       </c>
       <c r="F84" t="n">
-        <v>40.01669884634656</v>
+        <v>40.01669884634655</v>
       </c>
       <c r="G84" t="n">
-        <v>48.75719173001323</v>
+        <v>48.75719173001317</v>
       </c>
       <c r="H84" t="n">
-        <v>10.89290233726637</v>
+        <v>10.89290233726638</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7333,28 +7333,28 @@
         <v>46.97805561868334</v>
       </c>
       <c r="O84" t="n">
-        <v>13.4293755837777</v>
+        <v>13.42937558377771</v>
       </c>
       <c r="P84" t="n">
         <v>47.31136649178678</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01032787469977695</v>
+        <v>0.01032787469977693</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2467910570050728</v>
+        <v>0.2467910570050667</v>
       </c>
       <c r="S84" t="n">
-        <v>0.09181682568702082</v>
+        <v>0.09181682568701945</v>
       </c>
       <c r="T84" t="n">
-        <v>0.1935980462051463</v>
+        <v>0.1935980462051473</v>
       </c>
       <c r="U84" t="n">
-        <v>0.01077776209487388</v>
+        <v>0.01077776209487384</v>
       </c>
       <c r="V84" t="n">
-        <v>0.08432875402033599</v>
+        <v>0.0843287540203328</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002408099999996693</v>
+        <v>0.00176890000000185</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>359.9997422028274</v>
       </c>
       <c r="F85" t="n">
-        <v>39.74813272854576</v>
+        <v>39.74813272854578</v>
       </c>
       <c r="G85" t="n">
-        <v>46.25235641143435</v>
+        <v>46.25235641143432</v>
       </c>
       <c r="H85" t="n">
-        <v>11.10908631557423</v>
+        <v>11.10908631557424</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>13.11696317001783</v>
       </c>
       <c r="P85" t="n">
-        <v>47.59158870516366</v>
+        <v>47.59158870516369</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01025020815990813</v>
+        <v>0.01025020815990775</v>
       </c>
       <c r="R85" t="n">
-        <v>0.2442953471547839</v>
+        <v>0.2442953471547717</v>
       </c>
       <c r="S85" t="n">
-        <v>0.09020291900812001</v>
+        <v>0.09020291900811332</v>
       </c>
       <c r="T85" t="n">
-        <v>0.1986872941745706</v>
+        <v>0.1986872941745584</v>
       </c>
       <c r="U85" t="n">
-        <v>0.009900200738357899</v>
+        <v>0.009900200738357895</v>
       </c>
       <c r="V85" t="n">
-        <v>0.03646883653955931</v>
+        <v>0.03646883653955587</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002468899999996665</v>
+        <v>0.001718000000003883</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.295308484511734</v>
       </c>
       <c r="H86" t="n">
-        <v>7.29072425050945</v>
+        <v>7.290724250509452</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>46.39236791063693</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.008720133259614349</v>
+        <v>0.008720133259614347</v>
       </c>
       <c r="R86" t="n">
-        <v>0.3231975320527542</v>
+        <v>0.3231975320527556</v>
       </c>
       <c r="S86" t="n">
-        <v>0.0325313318992215</v>
+        <v>0.03253133189922132</v>
       </c>
       <c r="T86" t="n">
         <v>0.5218677969561393</v>
       </c>
       <c r="U86" t="n">
-        <v>0.01117502692664103</v>
+        <v>0.01117502692664101</v>
       </c>
       <c r="V86" t="n">
-        <v>0.05855360036741456</v>
+        <v>0.05855360036741396</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001931599999991818</v>
+        <v>0.001539199999996299</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7582,25 +7582,25 @@
         <v>18.75384529444905</v>
       </c>
       <c r="P87" t="n">
-        <v>35.26208099831734</v>
+        <v>35.26208099831735</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.009884305470738743</v>
+        <v>0.009884305470739131</v>
       </c>
       <c r="R87" t="n">
-        <v>0.2244050210528311</v>
+        <v>0.2244050210528471</v>
       </c>
       <c r="S87" t="n">
-        <v>0.08869437863787702</v>
+        <v>0.08869437863788543</v>
       </c>
       <c r="T87" t="n">
-        <v>0.09833646402281047</v>
+        <v>0.09833646402281318</v>
       </c>
       <c r="U87" t="n">
-        <v>0.01020745011032761</v>
+        <v>0.01020745011032758</v>
       </c>
       <c r="V87" t="n">
-        <v>0.009884236739413984</v>
+        <v>0.009884236739415742</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.003167799999999943</v>
+        <v>0.001951699999999335</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>40.00795990222155</v>
       </c>
       <c r="G88" t="n">
-        <v>37.64353115355045</v>
+        <v>37.64353115355048</v>
       </c>
       <c r="H88" t="n">
-        <v>5.312074810046781</v>
+        <v>5.312074810046776</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7664,25 +7664,25 @@
         <v>6.801190997424144</v>
       </c>
       <c r="P88" t="n">
-        <v>42.73984141444337</v>
+        <v>42.73984141444336</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.009460445623287768</v>
+        <v>0.009460445623287751</v>
       </c>
       <c r="R88" t="n">
-        <v>0.2195673765104218</v>
+        <v>0.2195673765104241</v>
       </c>
       <c r="S88" t="n">
-        <v>0.04937022265097505</v>
+        <v>0.04937022265097526</v>
       </c>
       <c r="T88" t="n">
         <v>0.2960950909598941</v>
       </c>
       <c r="U88" t="n">
-        <v>0.01013339940913521</v>
+        <v>0.01013339940913516</v>
       </c>
       <c r="V88" t="n">
-        <v>0.1197901876853139</v>
+        <v>0.1197901876853169</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002347799999995459</v>
+        <v>0.001585399999996184</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,7 +7716,7 @@
         <v>0.0009562252551280672</v>
       </c>
       <c r="F89" t="n">
-        <v>40.06315949086534</v>
+        <v>40.06315949086533</v>
       </c>
       <c r="G89" t="n">
         <v>118.2314868697072</v>
@@ -7746,25 +7746,25 @@
         <v>29.42887529152975</v>
       </c>
       <c r="P89" t="n">
-        <v>33.55357086848027</v>
+        <v>33.55357086848026</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01003076248874691</v>
+        <v>0.01003076248874579</v>
       </c>
       <c r="R89" t="n">
-        <v>0.2559309250505822</v>
+        <v>0.2559309250505214</v>
       </c>
       <c r="S89" t="n">
-        <v>0.1258833842304383</v>
+        <v>0.1258833842304072</v>
       </c>
       <c r="T89" t="n">
-        <v>0.05323567675799205</v>
+        <v>0.05323567675799201</v>
       </c>
       <c r="U89" t="n">
-        <v>0.01009185341368153</v>
+        <v>0.01009185341368147</v>
       </c>
       <c r="V89" t="n">
-        <v>0.009621419884376935</v>
+        <v>0.009621419884375922</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.003041800000005423</v>
+        <v>0.002747100000000557</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>0.0007849321748619224</v>
       </c>
       <c r="F90" t="n">
-        <v>40.33301462396726</v>
+        <v>40.33301462396722</v>
       </c>
       <c r="G90" t="n">
         <v>116.3135849589493</v>
       </c>
       <c r="H90" t="n">
-        <v>9.171959655477274</v>
+        <v>9.171959655477265</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>18.57771438431953</v>
       </c>
       <c r="P90" t="n">
-        <v>34.64287242028628</v>
+        <v>34.64287242028625</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.009929012187951581</v>
+        <v>0.009929012187951594</v>
       </c>
       <c r="R90" t="n">
-        <v>0.2247718810983272</v>
+        <v>0.2247718810983639</v>
       </c>
       <c r="S90" t="n">
-        <v>0.08704037254275866</v>
+        <v>0.08704037254276889</v>
       </c>
       <c r="T90" t="n">
-        <v>0.09748405953975456</v>
+        <v>0.09748405953975296</v>
       </c>
       <c r="U90" t="n">
-        <v>0.00996262326739814</v>
+        <v>0.009962623267398149</v>
       </c>
       <c r="V90" t="n">
-        <v>0.04813857488005979</v>
+        <v>0.04813857488005562</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.003069299999992836</v>
+        <v>0.001970599999999934</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7880,13 +7880,13 @@
         <v>0.02369215952466849</v>
       </c>
       <c r="F91" t="n">
-        <v>40.0062069187709</v>
+        <v>40.00620691877091</v>
       </c>
       <c r="G91" t="n">
-        <v>92.10021578767758</v>
+        <v>92.10021578767747</v>
       </c>
       <c r="H91" t="n">
-        <v>6.007991942289875</v>
+        <v>6.007991942289877</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>12.73689250245104</v>
       </c>
       <c r="P91" t="n">
-        <v>38.06223336766583</v>
+        <v>38.06223336766585</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.009762367797843145</v>
+        <v>0.009762367797843563</v>
       </c>
       <c r="R91" t="n">
-        <v>0.2107093888264676</v>
+        <v>0.2107093888264727</v>
       </c>
       <c r="S91" t="n">
-        <v>0.06982131551588369</v>
+        <v>0.06982131551588835</v>
       </c>
       <c r="T91" t="n">
-        <v>0.1615270584847435</v>
+        <v>0.1615270584847532</v>
       </c>
       <c r="U91" t="n">
-        <v>0.0103945300920815</v>
+        <v>0.01039453009208151</v>
       </c>
       <c r="V91" t="n">
-        <v>0.09334804361003769</v>
+        <v>0.09334804361003352</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.00244780000001299</v>
+        <v>0.0016278000000014</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7962,13 +7962,13 @@
         <v>359.9901647688801</v>
       </c>
       <c r="F92" t="n">
-        <v>39.6708668538799</v>
+        <v>39.67086685387989</v>
       </c>
       <c r="G92" t="n">
-        <v>25.80137939055277</v>
+        <v>25.80137939055272</v>
       </c>
       <c r="H92" t="n">
-        <v>5.207822938309847</v>
+        <v>5.207822938309858</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,25 +7992,25 @@
         <v>5.199258861554161</v>
       </c>
       <c r="P92" t="n">
-        <v>42.8572121692967</v>
+        <v>42.85721216929671</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.009065307142780152</v>
+        <v>0.009065307142780301</v>
       </c>
       <c r="R92" t="n">
-        <v>0.2335077339786618</v>
+        <v>0.2335077339786649</v>
       </c>
       <c r="S92" t="n">
-        <v>0.04118977244748832</v>
+        <v>0.04118977244748846</v>
       </c>
       <c r="T92" t="n">
-        <v>0.3540899525997007</v>
+        <v>0.3540899525997069</v>
       </c>
       <c r="U92" t="n">
-        <v>0.01071550342192579</v>
+        <v>0.01071550342192582</v>
       </c>
       <c r="V92" t="n">
-        <v>0.212037418613873</v>
+        <v>0.2120374186138806</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002323199999992198</v>
+        <v>0.00178969999999623</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.9834872161136</v>
       </c>
       <c r="F93" t="n">
-        <v>39.76508140350863</v>
+        <v>39.76508140350862</v>
       </c>
       <c r="G93" t="n">
-        <v>35.86274707410968</v>
+        <v>35.86274707410971</v>
       </c>
       <c r="H93" t="n">
-        <v>6.985044709113738</v>
+        <v>6.985044709113726</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>7.864387843013359</v>
       </c>
       <c r="P93" t="n">
-        <v>44.35893304927982</v>
+        <v>44.3589330492798</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.009665373187720667</v>
+        <v>0.009665373187720778</v>
       </c>
       <c r="R93" t="n">
-        <v>0.2211949506291735</v>
+        <v>0.2211949506291688</v>
       </c>
       <c r="S93" t="n">
-        <v>0.05648742286107896</v>
+        <v>0.05648742286107753</v>
       </c>
       <c r="T93" t="n">
-        <v>0.2732137470868604</v>
+        <v>0.2732137470868618</v>
       </c>
       <c r="U93" t="n">
-        <v>0.009404533518745536</v>
+        <v>0.009404533518745491</v>
       </c>
       <c r="V93" t="n">
-        <v>0.02791597337923221</v>
+        <v>0.02791597337922815</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002090300000006096</v>
+        <v>0.001510700000004306</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8126,7 +8126,7 @@
         <v>0.02386779618108758</v>
       </c>
       <c r="F94" t="n">
-        <v>39.76061302399415</v>
+        <v>39.76061302399414</v>
       </c>
       <c r="G94" t="n">
         <v>160.2781926931737</v>
@@ -8156,25 +8156,25 @@
         <v>15.350898245318</v>
       </c>
       <c r="P94" t="n">
-        <v>23.75823410699296</v>
+        <v>23.75823410699295</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.009027165429553287</v>
+        <v>0.009027165429552952</v>
       </c>
       <c r="R94" t="n">
-        <v>0.1683751401518484</v>
+        <v>0.1683751401518546</v>
       </c>
       <c r="S94" t="n">
-        <v>0.05301883949533332</v>
+        <v>0.05301883949533291</v>
       </c>
       <c r="T94" t="n">
-        <v>0.09173290771406759</v>
+        <v>0.09173290771406452</v>
       </c>
       <c r="U94" t="n">
-        <v>0.008897580845335259</v>
+        <v>0.008897580845335238</v>
       </c>
       <c r="V94" t="n">
-        <v>0.08150334462758124</v>
+        <v>0.08150334462758162</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002589700000001471</v>
+        <v>0.001735799999998733</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8208,10 +8208,10 @@
         <v>359.9952022072384</v>
       </c>
       <c r="F95" t="n">
-        <v>39.75993535248118</v>
+        <v>39.75993535248119</v>
       </c>
       <c r="G95" t="n">
-        <v>109.1206703069412</v>
+        <v>109.1206703069411</v>
       </c>
       <c r="H95" t="n">
         <v>10.8139935807057</v>
@@ -8241,22 +8241,22 @@
         <v>35.52822377085594</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.009950901169529508</v>
+        <v>0.009950901169527416</v>
       </c>
       <c r="R95" t="n">
-        <v>0.2351851404140503</v>
+        <v>0.235185140413945</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1029109397451427</v>
+        <v>0.1029109397450918</v>
       </c>
       <c r="T95" t="n">
-        <v>0.07966263741576508</v>
+        <v>0.0796626374157553</v>
       </c>
       <c r="U95" t="n">
-        <v>0.008997148050180766</v>
+        <v>0.008997148050180771</v>
       </c>
       <c r="V95" t="n">
-        <v>0.03001401331982078</v>
+        <v>0.03001401331982146</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003076700000008259</v>
+        <v>0.00193349999999981</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.003369747230650351</v>
       </c>
       <c r="F96" t="n">
-        <v>39.80965004946599</v>
+        <v>39.80965004946596</v>
       </c>
       <c r="G96" t="n">
         <v>129.3868615882469</v>
       </c>
       <c r="H96" t="n">
-        <v>10.21078755761545</v>
+        <v>10.21078755761544</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,25 +8320,25 @@
         <v>19.8890170920326</v>
       </c>
       <c r="P96" t="n">
-        <v>31.28413436276247</v>
+        <v>31.28413436276244</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.00967799812073317</v>
+        <v>0.009677998120733314</v>
       </c>
       <c r="R96" t="n">
-        <v>0.213596579643352</v>
+        <v>0.2135965796433494</v>
       </c>
       <c r="S96" t="n">
-        <v>0.0825961566074031</v>
+        <v>0.08259615660740374</v>
       </c>
       <c r="T96" t="n">
-        <v>0.08100337981438455</v>
+        <v>0.08100337981438606</v>
       </c>
       <c r="U96" t="n">
         <v>0.009960365404442405</v>
       </c>
       <c r="V96" t="n">
-        <v>0.03296902227140758</v>
+        <v>0.03296902227141082</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002882399999990071</v>
+        <v>0.002103499999996927</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8375,10 +8375,10 @@
         <v>40.02392802131428</v>
       </c>
       <c r="G97" t="n">
-        <v>40.61361377556503</v>
+        <v>40.61361377556504</v>
       </c>
       <c r="H97" t="n">
-        <v>5.378605173615941</v>
+        <v>5.378605173615938</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>42.64637100536171</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009526502226509649</v>
+        <v>0.009526502226509527</v>
       </c>
       <c r="R97" t="n">
-        <v>0.2176473638150329</v>
+        <v>0.2176473638150326</v>
       </c>
       <c r="S97" t="n">
-        <v>0.0514151170851223</v>
+        <v>0.05141511708512036</v>
       </c>
       <c r="T97" t="n">
-        <v>0.2827998533553697</v>
+        <v>0.2827998533553633</v>
       </c>
       <c r="U97" t="n">
-        <v>0.009438847497134598</v>
+        <v>0.009438847497134559</v>
       </c>
       <c r="V97" t="n">
-        <v>0.06293856753634797</v>
+        <v>0.0629385675363467</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002604599999997959</v>
+        <v>0.001641400000004012</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8457,7 +8457,7 @@
         <v>39.82067832851352</v>
       </c>
       <c r="G98" t="n">
-        <v>39.13384074324245</v>
+        <v>39.13384074324247</v>
       </c>
       <c r="H98" t="n">
         <v>13.55743669005713</v>
@@ -8487,22 +8487,22 @@
         <v>51.12336068760962</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01040578750444427</v>
+        <v>0.01040578750444437</v>
       </c>
       <c r="R98" t="n">
-        <v>0.2569596466542605</v>
+        <v>0.2569596466542511</v>
       </c>
       <c r="S98" t="n">
-        <v>0.09690758388460662</v>
+        <v>0.09690758388460601</v>
       </c>
       <c r="T98" t="n">
-        <v>0.219344281927413</v>
+        <v>0.219344281927416</v>
       </c>
       <c r="U98" t="n">
-        <v>0.009672541322790986</v>
+        <v>0.009672541322791006</v>
       </c>
       <c r="V98" t="n">
-        <v>0.09754206813321623</v>
+        <v>0.09754206813321725</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002746800000011262</v>
+        <v>0.001803400000000011</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>0.02420415350730237</v>
       </c>
       <c r="F99" t="n">
-        <v>39.78727750411734</v>
+        <v>39.78727750411735</v>
       </c>
       <c r="G99" t="n">
         <v>151.0504744171319</v>
@@ -8563,28 +8563,28 @@
         <v>24.13895389620888</v>
       </c>
       <c r="O99" t="n">
-        <v>23.88457657607856</v>
+        <v>23.88457657607854</v>
       </c>
       <c r="P99" t="n">
         <v>23.88169861607392</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.009378624956841197</v>
+        <v>0.009378624956840444</v>
       </c>
       <c r="R99" t="n">
-        <v>0.2057800302780038</v>
+        <v>0.2057800302779388</v>
       </c>
       <c r="S99" t="n">
-        <v>0.07597325577519518</v>
+        <v>0.07597325577517434</v>
       </c>
       <c r="T99" t="n">
-        <v>0.05883235214267336</v>
+        <v>0.05883235214266922</v>
       </c>
       <c r="U99" t="n">
-        <v>0.009805459115163711</v>
+        <v>0.009805459115163718</v>
       </c>
       <c r="V99" t="n">
-        <v>0.04049280980649448</v>
+        <v>0.0404928098064937</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002767900000009149</v>
+        <v>0.0021386000000021</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8618,13 +8618,13 @@
         <v>0.03070405352923977</v>
       </c>
       <c r="F100" t="n">
-        <v>39.55085985115591</v>
+        <v>39.5508598511559</v>
       </c>
       <c r="G100" t="n">
         <v>133.072291285144</v>
       </c>
       <c r="H100" t="n">
-        <v>9.74278571304262</v>
+        <v>9.742785713042618</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>18.58090265124312</v>
       </c>
       <c r="P100" t="n">
-        <v>30.54225832439017</v>
+        <v>30.54225832439015</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.009498830263937455</v>
+        <v>0.009498830263936728</v>
       </c>
       <c r="R100" t="n">
-        <v>0.2036695376455508</v>
+        <v>0.2036695376455379</v>
       </c>
       <c r="S100" t="n">
-        <v>0.07583178379804867</v>
+        <v>0.07583178379804083</v>
       </c>
       <c r="T100" t="n">
-        <v>0.08669132885027174</v>
+        <v>0.0866913288502673</v>
       </c>
       <c r="U100" t="n">
-        <v>0.01087628762073439</v>
+        <v>0.0108762876207344</v>
       </c>
       <c r="V100" t="n">
-        <v>0.08632161124494853</v>
+        <v>0.08632161124494975</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002976500000002602</v>
+        <v>0.001754099999999426</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8700,13 +8700,13 @@
         <v>359.9889200998024</v>
       </c>
       <c r="F101" t="n">
-        <v>40.16156753036262</v>
+        <v>40.16156753036261</v>
       </c>
       <c r="G101" t="n">
         <v>120.7014309425211</v>
       </c>
       <c r="H101" t="n">
-        <v>8.898412667258233</v>
+        <v>8.898412667258228</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8733,22 +8733,22 @@
         <v>33.71919640056299</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.009838428367487148</v>
+        <v>0.009838428367486787</v>
       </c>
       <c r="R101" t="n">
-        <v>0.2172601407488343</v>
+        <v>0.2172601407488301</v>
       </c>
       <c r="S101" t="n">
-        <v>0.08177733137940746</v>
+        <v>0.08177733137940314</v>
       </c>
       <c r="T101" t="n">
-        <v>0.09951023217613349</v>
+        <v>0.09951023217613068</v>
       </c>
       <c r="U101" t="n">
-        <v>0.00971990670066172</v>
+        <v>0.009719906700661725</v>
       </c>
       <c r="V101" t="n">
-        <v>0.03107193904424987</v>
+        <v>0.03107193904424943</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.006669800000011605</v>
+        <v>0.001821300000003134</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
